--- a/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
+++ b/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="14" r:id="rId1"/>
     <sheet name="V1.0_대외" sheetId="15" r:id="rId2"/>
+    <sheet name="1차 meeting" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">V1.0!$A$1:$BT$33</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>▶기능 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plasma_Gen_Functioin List_20180104.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◇PCB발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,12 +181,71 @@
     <t>Schedule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Functioin List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇1차 meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 CON type 변경 여부
+ - D-Sub 9-pin : PCB size가 커짐
+ - USB Data line : RS-232 통신용 젠더 제작이 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 Control를 위한 Command list 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schematic V2.0으로 진행시 M/E part 반영 가능 여부
+ - Volume / Power key / Plasma key / Reset key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E 구조에 따른 V2.0 수정 요청 사항 여부
+ - PCB size 및 외곽 모양
+ - 부품 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 형상 및 CON type 협의
+ - Battery size : L x W x H
+ - Battery 용량 : size에 맞춰 결정해야 함
+ - Battery current : 1A 이상
+ - 사용품 사용시 사용품에 맞춰 CON 결정해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협의 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산시 필요한 기능
+ - H/W version 관리
+ - D/L나 board test를 위한 Test Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +333,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -292,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -791,11 +856,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,6 +1103,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,9 +1136,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1435,8 +1667,8 @@
       <xdr:rowOff>80395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>173934</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>80395</xdr:rowOff>
     </xdr:to>
@@ -1448,7 +1680,58 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6264965" y="3998069"/>
-          <a:ext cx="1918252" cy="0"/>
+          <a:ext cx="7467600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>155712</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9158908" y="3844012"/>
+          <a:ext cx="4581940" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2443,7 +2726,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY22" sqref="AY22"/>
+      <selection pane="topRight" activeCell="AW28" sqref="AW28:AW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2470,213 +2753,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="87">
+      <c r="C3" s="90">
         <v>11</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92">
         <v>12</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="89">
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="92">
         <v>1</v>
       </c>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="90"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="90">
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="97"/>
+      <c r="BX3" s="93">
         <v>2</v>
       </c>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CB3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="90"/>
-      <c r="CE3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CG3" s="90"/>
-      <c r="CH3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CJ3" s="90"/>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CM3" s="90"/>
-      <c r="CN3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CP3" s="90"/>
-      <c r="CQ3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CS3" s="90"/>
-      <c r="CT3" s="90"/>
-      <c r="CU3" s="90"/>
-      <c r="CV3" s="90"/>
-      <c r="CW3" s="90"/>
-      <c r="CX3" s="90"/>
-      <c r="CY3" s="90"/>
-      <c r="CZ3" s="89">
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="93"/>
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="93"/>
+      <c r="CM3" s="93"/>
+      <c r="CN3" s="93"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="93"/>
+      <c r="CQ3" s="93"/>
+      <c r="CR3" s="93"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="93"/>
+      <c r="CU3" s="93"/>
+      <c r="CV3" s="93"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="93"/>
+      <c r="CY3" s="93"/>
+      <c r="CZ3" s="92">
         <v>3</v>
       </c>
-      <c r="DA3" s="90"/>
-      <c r="DB3" s="90"/>
-      <c r="DC3" s="90"/>
-      <c r="DD3" s="90"/>
-      <c r="DE3" s="90"/>
-      <c r="DF3" s="90"/>
-      <c r="DG3" s="90"/>
-      <c r="DH3" s="90"/>
-      <c r="DI3" s="90"/>
-      <c r="DJ3" s="90"/>
-      <c r="DK3" s="90"/>
-      <c r="DL3" s="90"/>
-      <c r="DM3" s="90"/>
-      <c r="DN3" s="90"/>
-      <c r="DO3" s="90"/>
-      <c r="DP3" s="90"/>
-      <c r="DQ3" s="90"/>
-      <c r="DR3" s="90"/>
-      <c r="DS3" s="90"/>
-      <c r="DT3" s="90"/>
-      <c r="DU3" s="90"/>
-      <c r="DV3" s="90"/>
-      <c r="DW3" s="90"/>
-      <c r="DX3" s="90"/>
-      <c r="DY3" s="90"/>
-      <c r="DZ3" s="90"/>
-      <c r="EA3" s="90"/>
-      <c r="EB3" s="90"/>
-      <c r="EC3" s="90"/>
-      <c r="ED3" s="94"/>
-      <c r="EE3" s="95">
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="93"/>
+      <c r="DC3" s="93"/>
+      <c r="DD3" s="93"/>
+      <c r="DE3" s="93"/>
+      <c r="DF3" s="93"/>
+      <c r="DG3" s="93"/>
+      <c r="DH3" s="93"/>
+      <c r="DI3" s="93"/>
+      <c r="DJ3" s="93"/>
+      <c r="DK3" s="93"/>
+      <c r="DL3" s="93"/>
+      <c r="DM3" s="93"/>
+      <c r="DN3" s="93"/>
+      <c r="DO3" s="93"/>
+      <c r="DP3" s="93"/>
+      <c r="DQ3" s="93"/>
+      <c r="DR3" s="93"/>
+      <c r="DS3" s="93"/>
+      <c r="DT3" s="93"/>
+      <c r="DU3" s="93"/>
+      <c r="DV3" s="93"/>
+      <c r="DW3" s="93"/>
+      <c r="DX3" s="93"/>
+      <c r="DY3" s="93"/>
+      <c r="DZ3" s="93"/>
+      <c r="EA3" s="93"/>
+      <c r="EB3" s="93"/>
+      <c r="EC3" s="93"/>
+      <c r="ED3" s="97"/>
+      <c r="EE3" s="98">
         <v>4</v>
       </c>
-      <c r="EF3" s="95"/>
-      <c r="EG3" s="95"/>
-      <c r="EH3" s="95"/>
-      <c r="EI3" s="95"/>
-      <c r="EJ3" s="95"/>
-      <c r="EK3" s="95"/>
-      <c r="EL3" s="95"/>
-      <c r="EM3" s="95"/>
-      <c r="EN3" s="95"/>
-      <c r="EO3" s="95"/>
-      <c r="EP3" s="95"/>
-      <c r="EQ3" s="95"/>
-      <c r="ER3" s="95"/>
-      <c r="ES3" s="95"/>
-      <c r="ET3" s="95"/>
-      <c r="EU3" s="95"/>
-      <c r="EV3" s="95"/>
-      <c r="EW3" s="95"/>
-      <c r="EX3" s="95"/>
-      <c r="EY3" s="95"/>
-      <c r="EZ3" s="95"/>
-      <c r="FA3" s="95"/>
-      <c r="FB3" s="95"/>
-      <c r="FC3" s="95"/>
-      <c r="FD3" s="95"/>
-      <c r="FE3" s="95"/>
-      <c r="FF3" s="95"/>
-      <c r="FG3" s="95"/>
-      <c r="FH3" s="96"/>
-      <c r="FI3" s="89">
+      <c r="EF3" s="98"/>
+      <c r="EG3" s="98"/>
+      <c r="EH3" s="98"/>
+      <c r="EI3" s="98"/>
+      <c r="EJ3" s="98"/>
+      <c r="EK3" s="98"/>
+      <c r="EL3" s="98"/>
+      <c r="EM3" s="98"/>
+      <c r="EN3" s="98"/>
+      <c r="EO3" s="98"/>
+      <c r="EP3" s="98"/>
+      <c r="EQ3" s="98"/>
+      <c r="ER3" s="98"/>
+      <c r="ES3" s="98"/>
+      <c r="ET3" s="98"/>
+      <c r="EU3" s="98"/>
+      <c r="EV3" s="98"/>
+      <c r="EW3" s="98"/>
+      <c r="EX3" s="98"/>
+      <c r="EY3" s="98"/>
+      <c r="EZ3" s="98"/>
+      <c r="FA3" s="98"/>
+      <c r="FB3" s="98"/>
+      <c r="FC3" s="98"/>
+      <c r="FD3" s="98"/>
+      <c r="FE3" s="98"/>
+      <c r="FF3" s="98"/>
+      <c r="FG3" s="98"/>
+      <c r="FH3" s="99"/>
+      <c r="FI3" s="92">
         <v>5</v>
       </c>
-      <c r="FJ3" s="90"/>
-      <c r="FK3" s="90"/>
-      <c r="FL3" s="90"/>
-      <c r="FM3" s="90"/>
-      <c r="FN3" s="90"/>
-      <c r="FO3" s="90"/>
-      <c r="FP3" s="90"/>
-      <c r="FQ3" s="90"/>
-      <c r="FR3" s="90"/>
-      <c r="FS3" s="90"/>
-      <c r="FT3" s="90"/>
-      <c r="FU3" s="90"/>
-      <c r="FV3" s="90"/>
-      <c r="FW3" s="90"/>
-      <c r="FX3" s="90"/>
-      <c r="FY3" s="90"/>
-      <c r="FZ3" s="90"/>
-      <c r="GA3" s="90"/>
-      <c r="GB3" s="90"/>
-      <c r="GC3" s="90"/>
-      <c r="GD3" s="90"/>
-      <c r="GE3" s="90"/>
-      <c r="GF3" s="90"/>
-      <c r="GG3" s="90"/>
-      <c r="GH3" s="90"/>
-      <c r="GI3" s="90"/>
-      <c r="GJ3" s="90"/>
-      <c r="GK3" s="90"/>
-      <c r="GL3" s="90"/>
-      <c r="GM3" s="94"/>
+      <c r="FJ3" s="93"/>
+      <c r="FK3" s="93"/>
+      <c r="FL3" s="93"/>
+      <c r="FM3" s="93"/>
+      <c r="FN3" s="93"/>
+      <c r="FO3" s="93"/>
+      <c r="FP3" s="93"/>
+      <c r="FQ3" s="93"/>
+      <c r="FR3" s="93"/>
+      <c r="FS3" s="93"/>
+      <c r="FT3" s="93"/>
+      <c r="FU3" s="93"/>
+      <c r="FV3" s="93"/>
+      <c r="FW3" s="93"/>
+      <c r="FX3" s="93"/>
+      <c r="FY3" s="93"/>
+      <c r="FZ3" s="93"/>
+      <c r="GA3" s="93"/>
+      <c r="GB3" s="93"/>
+      <c r="GC3" s="93"/>
+      <c r="GD3" s="93"/>
+      <c r="GE3" s="93"/>
+      <c r="GF3" s="93"/>
+      <c r="GG3" s="93"/>
+      <c r="GH3" s="93"/>
+      <c r="GI3" s="93"/>
+      <c r="GJ3" s="93"/>
+      <c r="GK3" s="93"/>
+      <c r="GL3" s="93"/>
+      <c r="GM3" s="97"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -3261,7 +3544,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -3463,7 +3746,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -3661,7 +3944,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -3859,7 +4142,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -4057,7 +4340,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -4255,7 +4538,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -4451,7 +4734,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -4661,7 +4944,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="91"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -4861,7 +5144,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -5061,7 +5344,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -5259,7 +5542,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -5457,7 +5740,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -5655,7 +5938,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -5853,7 +6136,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -7882,7 +8165,7 @@
       <c r="AU28" s="20"/>
       <c r="AV28" s="20"/>
       <c r="AW28" s="20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AX28" s="13"/>
       <c r="AY28" s="13"/>
@@ -8081,7 +8364,9 @@
       <c r="AT29" s="20"/>
       <c r="AU29" s="20"/>
       <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
+      <c r="AW29" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AX29" s="13"/>
       <c r="AY29" s="13"/>
       <c r="AZ29" s="20"/>
@@ -8279,7 +8564,9 @@
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
+      <c r="AW30" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="AX30" s="13"/>
       <c r="AY30" s="13"/>
       <c r="AZ30" s="6"/>
@@ -8983,9 +9270,9 @@
   </sheetPr>
   <dimension ref="B1:GM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE31" sqref="BE31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9012,213 +9299,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="87">
+      <c r="C3" s="90">
         <v>11</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92">
         <v>12</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="89">
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="92">
         <v>1</v>
       </c>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="90"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="90">
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="97"/>
+      <c r="BX3" s="93">
         <v>2</v>
       </c>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CB3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="90"/>
-      <c r="CE3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CG3" s="90"/>
-      <c r="CH3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CJ3" s="90"/>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CM3" s="90"/>
-      <c r="CN3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CP3" s="90"/>
-      <c r="CQ3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CS3" s="90"/>
-      <c r="CT3" s="90"/>
-      <c r="CU3" s="90"/>
-      <c r="CV3" s="90"/>
-      <c r="CW3" s="90"/>
-      <c r="CX3" s="90"/>
-      <c r="CY3" s="90"/>
-      <c r="CZ3" s="89">
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="93"/>
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="93"/>
+      <c r="CM3" s="93"/>
+      <c r="CN3" s="93"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="93"/>
+      <c r="CQ3" s="93"/>
+      <c r="CR3" s="93"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="93"/>
+      <c r="CU3" s="93"/>
+      <c r="CV3" s="93"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="93"/>
+      <c r="CY3" s="93"/>
+      <c r="CZ3" s="92">
         <v>3</v>
       </c>
-      <c r="DA3" s="90"/>
-      <c r="DB3" s="90"/>
-      <c r="DC3" s="90"/>
-      <c r="DD3" s="90"/>
-      <c r="DE3" s="90"/>
-      <c r="DF3" s="90"/>
-      <c r="DG3" s="90"/>
-      <c r="DH3" s="90"/>
-      <c r="DI3" s="90"/>
-      <c r="DJ3" s="90"/>
-      <c r="DK3" s="90"/>
-      <c r="DL3" s="90"/>
-      <c r="DM3" s="90"/>
-      <c r="DN3" s="90"/>
-      <c r="DO3" s="90"/>
-      <c r="DP3" s="90"/>
-      <c r="DQ3" s="90"/>
-      <c r="DR3" s="90"/>
-      <c r="DS3" s="90"/>
-      <c r="DT3" s="90"/>
-      <c r="DU3" s="90"/>
-      <c r="DV3" s="90"/>
-      <c r="DW3" s="90"/>
-      <c r="DX3" s="90"/>
-      <c r="DY3" s="90"/>
-      <c r="DZ3" s="90"/>
-      <c r="EA3" s="90"/>
-      <c r="EB3" s="90"/>
-      <c r="EC3" s="90"/>
-      <c r="ED3" s="94"/>
-      <c r="EE3" s="95">
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="93"/>
+      <c r="DC3" s="93"/>
+      <c r="DD3" s="93"/>
+      <c r="DE3" s="93"/>
+      <c r="DF3" s="93"/>
+      <c r="DG3" s="93"/>
+      <c r="DH3" s="93"/>
+      <c r="DI3" s="93"/>
+      <c r="DJ3" s="93"/>
+      <c r="DK3" s="93"/>
+      <c r="DL3" s="93"/>
+      <c r="DM3" s="93"/>
+      <c r="DN3" s="93"/>
+      <c r="DO3" s="93"/>
+      <c r="DP3" s="93"/>
+      <c r="DQ3" s="93"/>
+      <c r="DR3" s="93"/>
+      <c r="DS3" s="93"/>
+      <c r="DT3" s="93"/>
+      <c r="DU3" s="93"/>
+      <c r="DV3" s="93"/>
+      <c r="DW3" s="93"/>
+      <c r="DX3" s="93"/>
+      <c r="DY3" s="93"/>
+      <c r="DZ3" s="93"/>
+      <c r="EA3" s="93"/>
+      <c r="EB3" s="93"/>
+      <c r="EC3" s="93"/>
+      <c r="ED3" s="97"/>
+      <c r="EE3" s="98">
         <v>4</v>
       </c>
-      <c r="EF3" s="95"/>
-      <c r="EG3" s="95"/>
-      <c r="EH3" s="95"/>
-      <c r="EI3" s="95"/>
-      <c r="EJ3" s="95"/>
-      <c r="EK3" s="95"/>
-      <c r="EL3" s="95"/>
-      <c r="EM3" s="95"/>
-      <c r="EN3" s="95"/>
-      <c r="EO3" s="95"/>
-      <c r="EP3" s="95"/>
-      <c r="EQ3" s="95"/>
-      <c r="ER3" s="95"/>
-      <c r="ES3" s="95"/>
-      <c r="ET3" s="95"/>
-      <c r="EU3" s="95"/>
-      <c r="EV3" s="95"/>
-      <c r="EW3" s="95"/>
-      <c r="EX3" s="95"/>
-      <c r="EY3" s="95"/>
-      <c r="EZ3" s="95"/>
-      <c r="FA3" s="95"/>
-      <c r="FB3" s="95"/>
-      <c r="FC3" s="95"/>
-      <c r="FD3" s="95"/>
-      <c r="FE3" s="95"/>
-      <c r="FF3" s="95"/>
-      <c r="FG3" s="95"/>
-      <c r="FH3" s="96"/>
-      <c r="FI3" s="89">
+      <c r="EF3" s="98"/>
+      <c r="EG3" s="98"/>
+      <c r="EH3" s="98"/>
+      <c r="EI3" s="98"/>
+      <c r="EJ3" s="98"/>
+      <c r="EK3" s="98"/>
+      <c r="EL3" s="98"/>
+      <c r="EM3" s="98"/>
+      <c r="EN3" s="98"/>
+      <c r="EO3" s="98"/>
+      <c r="EP3" s="98"/>
+      <c r="EQ3" s="98"/>
+      <c r="ER3" s="98"/>
+      <c r="ES3" s="98"/>
+      <c r="ET3" s="98"/>
+      <c r="EU3" s="98"/>
+      <c r="EV3" s="98"/>
+      <c r="EW3" s="98"/>
+      <c r="EX3" s="98"/>
+      <c r="EY3" s="98"/>
+      <c r="EZ3" s="98"/>
+      <c r="FA3" s="98"/>
+      <c r="FB3" s="98"/>
+      <c r="FC3" s="98"/>
+      <c r="FD3" s="98"/>
+      <c r="FE3" s="98"/>
+      <c r="FF3" s="98"/>
+      <c r="FG3" s="98"/>
+      <c r="FH3" s="99"/>
+      <c r="FI3" s="92">
         <v>5</v>
       </c>
-      <c r="FJ3" s="90"/>
-      <c r="FK3" s="90"/>
-      <c r="FL3" s="90"/>
-      <c r="FM3" s="90"/>
-      <c r="FN3" s="90"/>
-      <c r="FO3" s="90"/>
-      <c r="FP3" s="90"/>
-      <c r="FQ3" s="90"/>
-      <c r="FR3" s="90"/>
-      <c r="FS3" s="90"/>
-      <c r="FT3" s="90"/>
-      <c r="FU3" s="90"/>
-      <c r="FV3" s="90"/>
-      <c r="FW3" s="90"/>
-      <c r="FX3" s="90"/>
-      <c r="FY3" s="90"/>
-      <c r="FZ3" s="90"/>
-      <c r="GA3" s="90"/>
-      <c r="GB3" s="90"/>
-      <c r="GC3" s="90"/>
-      <c r="GD3" s="90"/>
-      <c r="GE3" s="90"/>
-      <c r="GF3" s="90"/>
-      <c r="GG3" s="90"/>
-      <c r="GH3" s="90"/>
-      <c r="GI3" s="90"/>
-      <c r="GJ3" s="90"/>
-      <c r="GK3" s="90"/>
-      <c r="GL3" s="90"/>
-      <c r="GM3" s="94"/>
+      <c r="FJ3" s="93"/>
+      <c r="FK3" s="93"/>
+      <c r="FL3" s="93"/>
+      <c r="FM3" s="93"/>
+      <c r="FN3" s="93"/>
+      <c r="FO3" s="93"/>
+      <c r="FP3" s="93"/>
+      <c r="FQ3" s="93"/>
+      <c r="FR3" s="93"/>
+      <c r="FS3" s="93"/>
+      <c r="FT3" s="93"/>
+      <c r="FU3" s="93"/>
+      <c r="FV3" s="93"/>
+      <c r="FW3" s="93"/>
+      <c r="FX3" s="93"/>
+      <c r="FY3" s="93"/>
+      <c r="FZ3" s="93"/>
+      <c r="GA3" s="93"/>
+      <c r="GB3" s="93"/>
+      <c r="GC3" s="93"/>
+      <c r="GD3" s="93"/>
+      <c r="GE3" s="93"/>
+      <c r="GF3" s="93"/>
+      <c r="GG3" s="93"/>
+      <c r="GH3" s="93"/>
+      <c r="GI3" s="93"/>
+      <c r="GJ3" s="93"/>
+      <c r="GK3" s="93"/>
+      <c r="GL3" s="93"/>
+      <c r="GM3" s="97"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -9803,7 +10090,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -10005,7 +10292,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -10203,7 +10490,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -10401,7 +10688,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -10599,7 +10886,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -10797,7 +11084,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -10993,7 +11280,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -11203,7 +11490,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="91"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -11403,7 +11690,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -11603,7 +11890,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -11801,7 +12088,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -11999,7 +12286,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -12197,7 +12484,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -12395,7 +12682,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -12591,8 +12878,8 @@
       <c r="GM18" s="54"/>
     </row>
     <row r="19" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="s">
-        <v>34</v>
+      <c r="B19" s="96" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -12613,8 +12900,8 @@
       <c r="Q19" s="40"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="41"/>
       <c r="W19" s="41"/>
       <c r="X19" s="39"/>
@@ -12791,7 +13078,7 @@
       <c r="GM19" s="44"/>
     </row>
     <row r="20" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="48"/>
@@ -12823,14 +13110,14 @@
       <c r="AC20" s="68"/>
       <c r="AD20" s="46"/>
       <c r="AE20" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF20" s="48"/>
       <c r="AG20" s="48"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
       <c r="AJ20" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK20" s="46"/>
       <c r="AL20" s="46"/>
@@ -12992,7 +13279,7 @@
       <c r="GM20" s="49"/>
     </row>
     <row r="21" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="48"/>
@@ -13010,7 +13297,7 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="48"/>
       <c r="S21" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
@@ -13028,13 +13315,13 @@
       <c r="AG21" s="48"/>
       <c r="AH21" s="48"/>
       <c r="AI21" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ21" s="46"/>
       <c r="AK21" s="46"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN21" s="48"/>
       <c r="AO21" s="48"/>
@@ -13194,7 +13481,7 @@
       <c r="GM21" s="49"/>
     </row>
     <row r="22" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="48"/>
@@ -13231,7 +13518,7 @@
       <c r="AJ22" s="46"/>
       <c r="AK22" s="46"/>
       <c r="AL22" s="46"/>
-      <c r="AM22" s="97" t="s">
+      <c r="AM22" s="87" t="s">
         <v>25</v>
       </c>
       <c r="AN22" s="48"/>
@@ -13392,7 +13679,7 @@
       <c r="GM22" s="49"/>
     </row>
     <row r="23" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="48"/>
@@ -13421,7 +13708,7 @@
       <c r="AB23" s="48"/>
       <c r="AC23" s="46"/>
       <c r="AD23" s="46"/>
-      <c r="AE23" s="99" t="s">
+      <c r="AE23" s="89" t="s">
         <v>24</v>
       </c>
       <c r="AF23" s="48"/>
@@ -13590,7 +13877,7 @@
       <c r="GM23" s="49"/>
     </row>
     <row r="24" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -13786,7 +14073,7 @@
       <c r="GM24" s="49"/>
     </row>
     <row r="25" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -13982,7 +14269,7 @@
       <c r="GM25" s="49"/>
     </row>
     <row r="26" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -14236,7 +14523,9 @@
       <c r="BA27" s="20"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
+      <c r="BD27" s="66" t="s">
+        <v>41</v>
+      </c>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
       <c r="BG27" s="20"/>
@@ -14428,7 +14717,7 @@
       <c r="AU28" s="20"/>
       <c r="AV28" s="20"/>
       <c r="AW28" s="20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AX28" s="13"/>
       <c r="AY28" s="13"/>
@@ -14628,7 +14917,7 @@
       <c r="AU29" s="20"/>
       <c r="AV29" s="20"/>
       <c r="AW29" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AX29" s="13"/>
       <c r="AY29" s="13"/>
@@ -14828,7 +15117,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AX30" s="13"/>
       <c r="AY30" s="13"/>
@@ -15522,7 +15811,87 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="106"/>
+    </row>
+    <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="102"/>
+      <c r="C5" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="108"/>
+    </row>
+    <row r="6" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="102"/>
+      <c r="C6" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="108"/>
+    </row>
+    <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="108"/>
+    </row>
+    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="104"/>
+      <c r="C8" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="110"/>
+    </row>
+    <row r="9" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
+++ b/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="14" r:id="rId1"/>
     <sheet name="V1.0_대외" sheetId="15" r:id="rId2"/>
     <sheet name="1차 meeting" sheetId="16" r:id="rId3"/>
+    <sheet name="V2.0" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">V1.0!$A$1:$BT$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">V1.0_대외!$A$1:$BT$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">V2.0!$A$1:$BW$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>▶기능 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +240,70 @@
     <t>양산시 필요한 기능
  - H/W version 관리
  - D/L나 board test를 위한 Test Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma V2.0 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶M/E data 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB 외곽 모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume 및 Key 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top / Bottom 부품 높이 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery CON 변경 여부 ( 변경시 CON PN 정보 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇부품발주(8일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB발주(5일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB제작(3일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB제작(3일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,6 +1172,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,7 +1230,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,33 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2432,6 +2498,470 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>73715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356324" y="1929486"/>
+          <a:ext cx="299002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>52180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18596941" y="1924516"/>
+          <a:ext cx="328820" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>163167</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19304276" y="2110047"/>
+          <a:ext cx="1427094" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>197954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17624563" y="1929486"/>
+          <a:ext cx="299002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>151572</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>53008</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77495</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17776963" y="2081886"/>
+          <a:ext cx="299002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>88624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19304276" y="2110047"/>
+          <a:ext cx="1427093" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85311</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4193485" y="3324277"/>
+          <a:ext cx="1446972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>42241</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19456676" y="2262447"/>
+          <a:ext cx="1427093" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>146603</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>3314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80807</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248690" y="3476677"/>
+          <a:ext cx="1446972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2475,7 +3005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2510,7 +3040,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2725,8 +3255,8 @@
   <dimension ref="B1:GM49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW28" sqref="AW28:AW30"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH31" sqref="BH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2753,213 +3283,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="90">
+      <c r="C3" s="100">
         <v>11</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102">
         <v>12</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="92">
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="102">
         <v>1</v>
       </c>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="97"/>
-      <c r="BX3" s="93">
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="103">
         <v>2</v>
       </c>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="93"/>
-      <c r="CB3" s="93"/>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="93"/>
-      <c r="CE3" s="93"/>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93"/>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="93"/>
-      <c r="CL3" s="93"/>
-      <c r="CM3" s="93"/>
-      <c r="CN3" s="93"/>
-      <c r="CO3" s="93"/>
-      <c r="CP3" s="93"/>
-      <c r="CQ3" s="93"/>
-      <c r="CR3" s="93"/>
-      <c r="CS3" s="93"/>
-      <c r="CT3" s="93"/>
-      <c r="CU3" s="93"/>
-      <c r="CV3" s="93"/>
-      <c r="CW3" s="93"/>
-      <c r="CX3" s="93"/>
-      <c r="CY3" s="93"/>
-      <c r="CZ3" s="92">
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="103"/>
+      <c r="CF3" s="103"/>
+      <c r="CG3" s="103"/>
+      <c r="CH3" s="103"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="103"/>
+      <c r="CK3" s="103"/>
+      <c r="CL3" s="103"/>
+      <c r="CM3" s="103"/>
+      <c r="CN3" s="103"/>
+      <c r="CO3" s="103"/>
+      <c r="CP3" s="103"/>
+      <c r="CQ3" s="103"/>
+      <c r="CR3" s="103"/>
+      <c r="CS3" s="103"/>
+      <c r="CT3" s="103"/>
+      <c r="CU3" s="103"/>
+      <c r="CV3" s="103"/>
+      <c r="CW3" s="103"/>
+      <c r="CX3" s="103"/>
+      <c r="CY3" s="103"/>
+      <c r="CZ3" s="102">
         <v>3</v>
       </c>
-      <c r="DA3" s="93"/>
-      <c r="DB3" s="93"/>
-      <c r="DC3" s="93"/>
-      <c r="DD3" s="93"/>
-      <c r="DE3" s="93"/>
-      <c r="DF3" s="93"/>
-      <c r="DG3" s="93"/>
-      <c r="DH3" s="93"/>
-      <c r="DI3" s="93"/>
-      <c r="DJ3" s="93"/>
-      <c r="DK3" s="93"/>
-      <c r="DL3" s="93"/>
-      <c r="DM3" s="93"/>
-      <c r="DN3" s="93"/>
-      <c r="DO3" s="93"/>
-      <c r="DP3" s="93"/>
-      <c r="DQ3" s="93"/>
-      <c r="DR3" s="93"/>
-      <c r="DS3" s="93"/>
-      <c r="DT3" s="93"/>
-      <c r="DU3" s="93"/>
-      <c r="DV3" s="93"/>
-      <c r="DW3" s="93"/>
-      <c r="DX3" s="93"/>
-      <c r="DY3" s="93"/>
-      <c r="DZ3" s="93"/>
-      <c r="EA3" s="93"/>
-      <c r="EB3" s="93"/>
-      <c r="EC3" s="93"/>
-      <c r="ED3" s="97"/>
-      <c r="EE3" s="98">
+      <c r="DA3" s="103"/>
+      <c r="DB3" s="103"/>
+      <c r="DC3" s="103"/>
+      <c r="DD3" s="103"/>
+      <c r="DE3" s="103"/>
+      <c r="DF3" s="103"/>
+      <c r="DG3" s="103"/>
+      <c r="DH3" s="103"/>
+      <c r="DI3" s="103"/>
+      <c r="DJ3" s="103"/>
+      <c r="DK3" s="103"/>
+      <c r="DL3" s="103"/>
+      <c r="DM3" s="103"/>
+      <c r="DN3" s="103"/>
+      <c r="DO3" s="103"/>
+      <c r="DP3" s="103"/>
+      <c r="DQ3" s="103"/>
+      <c r="DR3" s="103"/>
+      <c r="DS3" s="103"/>
+      <c r="DT3" s="103"/>
+      <c r="DU3" s="103"/>
+      <c r="DV3" s="103"/>
+      <c r="DW3" s="103"/>
+      <c r="DX3" s="103"/>
+      <c r="DY3" s="103"/>
+      <c r="DZ3" s="103"/>
+      <c r="EA3" s="103"/>
+      <c r="EB3" s="103"/>
+      <c r="EC3" s="103"/>
+      <c r="ED3" s="107"/>
+      <c r="EE3" s="108">
         <v>4</v>
       </c>
-      <c r="EF3" s="98"/>
-      <c r="EG3" s="98"/>
-      <c r="EH3" s="98"/>
-      <c r="EI3" s="98"/>
-      <c r="EJ3" s="98"/>
-      <c r="EK3" s="98"/>
-      <c r="EL3" s="98"/>
-      <c r="EM3" s="98"/>
-      <c r="EN3" s="98"/>
-      <c r="EO3" s="98"/>
-      <c r="EP3" s="98"/>
-      <c r="EQ3" s="98"/>
-      <c r="ER3" s="98"/>
-      <c r="ES3" s="98"/>
-      <c r="ET3" s="98"/>
-      <c r="EU3" s="98"/>
-      <c r="EV3" s="98"/>
-      <c r="EW3" s="98"/>
-      <c r="EX3" s="98"/>
-      <c r="EY3" s="98"/>
-      <c r="EZ3" s="98"/>
-      <c r="FA3" s="98"/>
-      <c r="FB3" s="98"/>
-      <c r="FC3" s="98"/>
-      <c r="FD3" s="98"/>
-      <c r="FE3" s="98"/>
-      <c r="FF3" s="98"/>
-      <c r="FG3" s="98"/>
-      <c r="FH3" s="99"/>
-      <c r="FI3" s="92">
+      <c r="EF3" s="108"/>
+      <c r="EG3" s="108"/>
+      <c r="EH3" s="108"/>
+      <c r="EI3" s="108"/>
+      <c r="EJ3" s="108"/>
+      <c r="EK3" s="108"/>
+      <c r="EL3" s="108"/>
+      <c r="EM3" s="108"/>
+      <c r="EN3" s="108"/>
+      <c r="EO3" s="108"/>
+      <c r="EP3" s="108"/>
+      <c r="EQ3" s="108"/>
+      <c r="ER3" s="108"/>
+      <c r="ES3" s="108"/>
+      <c r="ET3" s="108"/>
+      <c r="EU3" s="108"/>
+      <c r="EV3" s="108"/>
+      <c r="EW3" s="108"/>
+      <c r="EX3" s="108"/>
+      <c r="EY3" s="108"/>
+      <c r="EZ3" s="108"/>
+      <c r="FA3" s="108"/>
+      <c r="FB3" s="108"/>
+      <c r="FC3" s="108"/>
+      <c r="FD3" s="108"/>
+      <c r="FE3" s="108"/>
+      <c r="FF3" s="108"/>
+      <c r="FG3" s="108"/>
+      <c r="FH3" s="109"/>
+      <c r="FI3" s="102">
         <v>5</v>
       </c>
-      <c r="FJ3" s="93"/>
-      <c r="FK3" s="93"/>
-      <c r="FL3" s="93"/>
-      <c r="FM3" s="93"/>
-      <c r="FN3" s="93"/>
-      <c r="FO3" s="93"/>
-      <c r="FP3" s="93"/>
-      <c r="FQ3" s="93"/>
-      <c r="FR3" s="93"/>
-      <c r="FS3" s="93"/>
-      <c r="FT3" s="93"/>
-      <c r="FU3" s="93"/>
-      <c r="FV3" s="93"/>
-      <c r="FW3" s="93"/>
-      <c r="FX3" s="93"/>
-      <c r="FY3" s="93"/>
-      <c r="FZ3" s="93"/>
-      <c r="GA3" s="93"/>
-      <c r="GB3" s="93"/>
-      <c r="GC3" s="93"/>
-      <c r="GD3" s="93"/>
-      <c r="GE3" s="93"/>
-      <c r="GF3" s="93"/>
-      <c r="GG3" s="93"/>
-      <c r="GH3" s="93"/>
-      <c r="GI3" s="93"/>
-      <c r="GJ3" s="93"/>
-      <c r="GK3" s="93"/>
-      <c r="GL3" s="93"/>
-      <c r="GM3" s="97"/>
+      <c r="FJ3" s="103"/>
+      <c r="FK3" s="103"/>
+      <c r="FL3" s="103"/>
+      <c r="FM3" s="103"/>
+      <c r="FN3" s="103"/>
+      <c r="FO3" s="103"/>
+      <c r="FP3" s="103"/>
+      <c r="FQ3" s="103"/>
+      <c r="FR3" s="103"/>
+      <c r="FS3" s="103"/>
+      <c r="FT3" s="103"/>
+      <c r="FU3" s="103"/>
+      <c r="FV3" s="103"/>
+      <c r="FW3" s="103"/>
+      <c r="FX3" s="103"/>
+      <c r="FY3" s="103"/>
+      <c r="FZ3" s="103"/>
+      <c r="GA3" s="103"/>
+      <c r="GB3" s="103"/>
+      <c r="GC3" s="103"/>
+      <c r="GD3" s="103"/>
+      <c r="GE3" s="103"/>
+      <c r="GF3" s="103"/>
+      <c r="GG3" s="103"/>
+      <c r="GH3" s="103"/>
+      <c r="GI3" s="103"/>
+      <c r="GJ3" s="103"/>
+      <c r="GK3" s="103"/>
+      <c r="GL3" s="103"/>
+      <c r="GM3" s="107"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -3544,7 +4074,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="104" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -3746,7 +4276,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -3944,7 +4474,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="94"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -4142,7 +4672,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="94"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -4340,7 +4870,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="94"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -4538,7 +5068,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -4734,7 +5264,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="106" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -4944,7 +5474,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -5144,7 +5674,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -5344,7 +5874,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -5542,7 +6072,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -5740,7 +6270,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -5938,7 +6468,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="94"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -6136,7 +6666,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -7973,7 +8503,9 @@
       <c r="BA27" s="20"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
+      <c r="BD27" s="66" t="s">
+        <v>41</v>
+      </c>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
       <c r="BG27" s="20"/>
@@ -9272,7 +9804,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y36" sqref="Y36"/>
+      <selection pane="topRight" activeCell="BD27" sqref="BD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9299,213 +9831,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="90">
+      <c r="C3" s="100">
         <v>11</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102">
         <v>12</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="92">
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="102">
         <v>1</v>
       </c>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="97"/>
-      <c r="BX3" s="93">
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="103">
         <v>2</v>
       </c>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="93"/>
-      <c r="CB3" s="93"/>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="93"/>
-      <c r="CE3" s="93"/>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93"/>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="93"/>
-      <c r="CL3" s="93"/>
-      <c r="CM3" s="93"/>
-      <c r="CN3" s="93"/>
-      <c r="CO3" s="93"/>
-      <c r="CP3" s="93"/>
-      <c r="CQ3" s="93"/>
-      <c r="CR3" s="93"/>
-      <c r="CS3" s="93"/>
-      <c r="CT3" s="93"/>
-      <c r="CU3" s="93"/>
-      <c r="CV3" s="93"/>
-      <c r="CW3" s="93"/>
-      <c r="CX3" s="93"/>
-      <c r="CY3" s="93"/>
-      <c r="CZ3" s="92">
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="103"/>
+      <c r="CF3" s="103"/>
+      <c r="CG3" s="103"/>
+      <c r="CH3" s="103"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="103"/>
+      <c r="CK3" s="103"/>
+      <c r="CL3" s="103"/>
+      <c r="CM3" s="103"/>
+      <c r="CN3" s="103"/>
+      <c r="CO3" s="103"/>
+      <c r="CP3" s="103"/>
+      <c r="CQ3" s="103"/>
+      <c r="CR3" s="103"/>
+      <c r="CS3" s="103"/>
+      <c r="CT3" s="103"/>
+      <c r="CU3" s="103"/>
+      <c r="CV3" s="103"/>
+      <c r="CW3" s="103"/>
+      <c r="CX3" s="103"/>
+      <c r="CY3" s="103"/>
+      <c r="CZ3" s="102">
         <v>3</v>
       </c>
-      <c r="DA3" s="93"/>
-      <c r="DB3" s="93"/>
-      <c r="DC3" s="93"/>
-      <c r="DD3" s="93"/>
-      <c r="DE3" s="93"/>
-      <c r="DF3" s="93"/>
-      <c r="DG3" s="93"/>
-      <c r="DH3" s="93"/>
-      <c r="DI3" s="93"/>
-      <c r="DJ3" s="93"/>
-      <c r="DK3" s="93"/>
-      <c r="DL3" s="93"/>
-      <c r="DM3" s="93"/>
-      <c r="DN3" s="93"/>
-      <c r="DO3" s="93"/>
-      <c r="DP3" s="93"/>
-      <c r="DQ3" s="93"/>
-      <c r="DR3" s="93"/>
-      <c r="DS3" s="93"/>
-      <c r="DT3" s="93"/>
-      <c r="DU3" s="93"/>
-      <c r="DV3" s="93"/>
-      <c r="DW3" s="93"/>
-      <c r="DX3" s="93"/>
-      <c r="DY3" s="93"/>
-      <c r="DZ3" s="93"/>
-      <c r="EA3" s="93"/>
-      <c r="EB3" s="93"/>
-      <c r="EC3" s="93"/>
-      <c r="ED3" s="97"/>
-      <c r="EE3" s="98">
+      <c r="DA3" s="103"/>
+      <c r="DB3" s="103"/>
+      <c r="DC3" s="103"/>
+      <c r="DD3" s="103"/>
+      <c r="DE3" s="103"/>
+      <c r="DF3" s="103"/>
+      <c r="DG3" s="103"/>
+      <c r="DH3" s="103"/>
+      <c r="DI3" s="103"/>
+      <c r="DJ3" s="103"/>
+      <c r="DK3" s="103"/>
+      <c r="DL3" s="103"/>
+      <c r="DM3" s="103"/>
+      <c r="DN3" s="103"/>
+      <c r="DO3" s="103"/>
+      <c r="DP3" s="103"/>
+      <c r="DQ3" s="103"/>
+      <c r="DR3" s="103"/>
+      <c r="DS3" s="103"/>
+      <c r="DT3" s="103"/>
+      <c r="DU3" s="103"/>
+      <c r="DV3" s="103"/>
+      <c r="DW3" s="103"/>
+      <c r="DX3" s="103"/>
+      <c r="DY3" s="103"/>
+      <c r="DZ3" s="103"/>
+      <c r="EA3" s="103"/>
+      <c r="EB3" s="103"/>
+      <c r="EC3" s="103"/>
+      <c r="ED3" s="107"/>
+      <c r="EE3" s="108">
         <v>4</v>
       </c>
-      <c r="EF3" s="98"/>
-      <c r="EG3" s="98"/>
-      <c r="EH3" s="98"/>
-      <c r="EI3" s="98"/>
-      <c r="EJ3" s="98"/>
-      <c r="EK3" s="98"/>
-      <c r="EL3" s="98"/>
-      <c r="EM3" s="98"/>
-      <c r="EN3" s="98"/>
-      <c r="EO3" s="98"/>
-      <c r="EP3" s="98"/>
-      <c r="EQ3" s="98"/>
-      <c r="ER3" s="98"/>
-      <c r="ES3" s="98"/>
-      <c r="ET3" s="98"/>
-      <c r="EU3" s="98"/>
-      <c r="EV3" s="98"/>
-      <c r="EW3" s="98"/>
-      <c r="EX3" s="98"/>
-      <c r="EY3" s="98"/>
-      <c r="EZ3" s="98"/>
-      <c r="FA3" s="98"/>
-      <c r="FB3" s="98"/>
-      <c r="FC3" s="98"/>
-      <c r="FD3" s="98"/>
-      <c r="FE3" s="98"/>
-      <c r="FF3" s="98"/>
-      <c r="FG3" s="98"/>
-      <c r="FH3" s="99"/>
-      <c r="FI3" s="92">
+      <c r="EF3" s="108"/>
+      <c r="EG3" s="108"/>
+      <c r="EH3" s="108"/>
+      <c r="EI3" s="108"/>
+      <c r="EJ3" s="108"/>
+      <c r="EK3" s="108"/>
+      <c r="EL3" s="108"/>
+      <c r="EM3" s="108"/>
+      <c r="EN3" s="108"/>
+      <c r="EO3" s="108"/>
+      <c r="EP3" s="108"/>
+      <c r="EQ3" s="108"/>
+      <c r="ER3" s="108"/>
+      <c r="ES3" s="108"/>
+      <c r="ET3" s="108"/>
+      <c r="EU3" s="108"/>
+      <c r="EV3" s="108"/>
+      <c r="EW3" s="108"/>
+      <c r="EX3" s="108"/>
+      <c r="EY3" s="108"/>
+      <c r="EZ3" s="108"/>
+      <c r="FA3" s="108"/>
+      <c r="FB3" s="108"/>
+      <c r="FC3" s="108"/>
+      <c r="FD3" s="108"/>
+      <c r="FE3" s="108"/>
+      <c r="FF3" s="108"/>
+      <c r="FG3" s="108"/>
+      <c r="FH3" s="109"/>
+      <c r="FI3" s="102">
         <v>5</v>
       </c>
-      <c r="FJ3" s="93"/>
-      <c r="FK3" s="93"/>
-      <c r="FL3" s="93"/>
-      <c r="FM3" s="93"/>
-      <c r="FN3" s="93"/>
-      <c r="FO3" s="93"/>
-      <c r="FP3" s="93"/>
-      <c r="FQ3" s="93"/>
-      <c r="FR3" s="93"/>
-      <c r="FS3" s="93"/>
-      <c r="FT3" s="93"/>
-      <c r="FU3" s="93"/>
-      <c r="FV3" s="93"/>
-      <c r="FW3" s="93"/>
-      <c r="FX3" s="93"/>
-      <c r="FY3" s="93"/>
-      <c r="FZ3" s="93"/>
-      <c r="GA3" s="93"/>
-      <c r="GB3" s="93"/>
-      <c r="GC3" s="93"/>
-      <c r="GD3" s="93"/>
-      <c r="GE3" s="93"/>
-      <c r="GF3" s="93"/>
-      <c r="GG3" s="93"/>
-      <c r="GH3" s="93"/>
-      <c r="GI3" s="93"/>
-      <c r="GJ3" s="93"/>
-      <c r="GK3" s="93"/>
-      <c r="GL3" s="93"/>
-      <c r="GM3" s="97"/>
+      <c r="FJ3" s="103"/>
+      <c r="FK3" s="103"/>
+      <c r="FL3" s="103"/>
+      <c r="FM3" s="103"/>
+      <c r="FN3" s="103"/>
+      <c r="FO3" s="103"/>
+      <c r="FP3" s="103"/>
+      <c r="FQ3" s="103"/>
+      <c r="FR3" s="103"/>
+      <c r="FS3" s="103"/>
+      <c r="FT3" s="103"/>
+      <c r="FU3" s="103"/>
+      <c r="FV3" s="103"/>
+      <c r="FW3" s="103"/>
+      <c r="FX3" s="103"/>
+      <c r="FY3" s="103"/>
+      <c r="FZ3" s="103"/>
+      <c r="GA3" s="103"/>
+      <c r="GB3" s="103"/>
+      <c r="GC3" s="103"/>
+      <c r="GD3" s="103"/>
+      <c r="GE3" s="103"/>
+      <c r="GF3" s="103"/>
+      <c r="GG3" s="103"/>
+      <c r="GH3" s="103"/>
+      <c r="GI3" s="103"/>
+      <c r="GJ3" s="103"/>
+      <c r="GK3" s="103"/>
+      <c r="GL3" s="103"/>
+      <c r="GM3" s="107"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -10090,7 +10622,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="104" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -10292,7 +10824,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -10490,7 +11022,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="94"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -10688,7 +11220,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="94"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -10886,7 +11418,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="94"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -11084,7 +11616,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -11280,7 +11812,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="106" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -11490,7 +12022,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -11690,7 +12222,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -11890,7 +12422,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -12088,7 +12620,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -12286,7 +12818,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -12484,7 +13016,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="94"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -12682,7 +13214,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -12878,7 +13410,7 @@
       <c r="GM18" s="54"/>
     </row>
     <row r="19" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="106" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="39"/>
@@ -13078,7 +13610,7 @@
       <c r="GM19" s="44"/>
     </row>
     <row r="20" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="94"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="48"/>
@@ -13279,7 +13811,7 @@
       <c r="GM20" s="49"/>
     </row>
     <row r="21" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="94"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="48"/>
@@ -13481,7 +14013,7 @@
       <c r="GM21" s="49"/>
     </row>
     <row r="22" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="48"/>
@@ -13679,7 +14211,7 @@
       <c r="GM22" s="49"/>
     </row>
     <row r="23" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="48"/>
@@ -13877,7 +14409,7 @@
       <c r="GM23" s="49"/>
     </row>
     <row r="24" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -14073,7 +14605,7 @@
       <c r="GM24" s="49"/>
     </row>
     <row r="25" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -14269,7 +14801,7 @@
       <c r="GM25" s="49"/>
     </row>
     <row r="26" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -15811,7 +16343,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15820,8 +16352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15832,58 +16364,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="90" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="107" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="102"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="109" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15894,4 +16426,5031 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:EW49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="3"/>
+    <col min="2" max="2" width="7" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="2.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:153" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:153" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:153" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="102">
+        <v>1</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="103">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="102">
+        <v>3</v>
+      </c>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="103"/>
+      <c r="BX3" s="103"/>
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="103"/>
+      <c r="CF3" s="103"/>
+      <c r="CG3" s="103"/>
+      <c r="CH3" s="103"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="103"/>
+      <c r="CK3" s="103"/>
+      <c r="CL3" s="103"/>
+      <c r="CM3" s="103"/>
+      <c r="CN3" s="107"/>
+      <c r="CO3" s="108">
+        <v>4</v>
+      </c>
+      <c r="CP3" s="108"/>
+      <c r="CQ3" s="108"/>
+      <c r="CR3" s="108"/>
+      <c r="CS3" s="108"/>
+      <c r="CT3" s="108"/>
+      <c r="CU3" s="108"/>
+      <c r="CV3" s="108"/>
+      <c r="CW3" s="108"/>
+      <c r="CX3" s="108"/>
+      <c r="CY3" s="108"/>
+      <c r="CZ3" s="108"/>
+      <c r="DA3" s="108"/>
+      <c r="DB3" s="108"/>
+      <c r="DC3" s="108"/>
+      <c r="DD3" s="108"/>
+      <c r="DE3" s="108"/>
+      <c r="DF3" s="108"/>
+      <c r="DG3" s="108"/>
+      <c r="DH3" s="108"/>
+      <c r="DI3" s="108"/>
+      <c r="DJ3" s="108"/>
+      <c r="DK3" s="108"/>
+      <c r="DL3" s="108"/>
+      <c r="DM3" s="108"/>
+      <c r="DN3" s="108"/>
+      <c r="DO3" s="108"/>
+      <c r="DP3" s="108"/>
+      <c r="DQ3" s="108"/>
+      <c r="DR3" s="109"/>
+      <c r="DS3" s="102">
+        <v>5</v>
+      </c>
+      <c r="DT3" s="103"/>
+      <c r="DU3" s="103"/>
+      <c r="DV3" s="103"/>
+      <c r="DW3" s="103"/>
+      <c r="DX3" s="103"/>
+      <c r="DY3" s="103"/>
+      <c r="DZ3" s="103"/>
+      <c r="EA3" s="103"/>
+      <c r="EB3" s="103"/>
+      <c r="EC3" s="103"/>
+      <c r="ED3" s="103"/>
+      <c r="EE3" s="103"/>
+      <c r="EF3" s="103"/>
+      <c r="EG3" s="103"/>
+      <c r="EH3" s="103"/>
+      <c r="EI3" s="103"/>
+      <c r="EJ3" s="103"/>
+      <c r="EK3" s="103"/>
+      <c r="EL3" s="103"/>
+      <c r="EM3" s="103"/>
+      <c r="EN3" s="103"/>
+      <c r="EO3" s="103"/>
+      <c r="EP3" s="103"/>
+      <c r="EQ3" s="103"/>
+      <c r="ER3" s="103"/>
+      <c r="ES3" s="103"/>
+      <c r="ET3" s="103"/>
+      <c r="EU3" s="103"/>
+      <c r="EV3" s="103"/>
+      <c r="EW3" s="107"/>
+    </row>
+    <row r="4" spans="2:153" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
+        <v>2</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3</v>
+      </c>
+      <c r="F4" s="33">
+        <v>4</v>
+      </c>
+      <c r="G4" s="33">
+        <v>5</v>
+      </c>
+      <c r="H4" s="35">
+        <v>6</v>
+      </c>
+      <c r="I4" s="35">
+        <v>7</v>
+      </c>
+      <c r="J4" s="33">
+        <v>8</v>
+      </c>
+      <c r="K4" s="33">
+        <v>9</v>
+      </c>
+      <c r="L4" s="33">
+        <v>10</v>
+      </c>
+      <c r="M4" s="33">
+        <v>11</v>
+      </c>
+      <c r="N4" s="33">
+        <v>12</v>
+      </c>
+      <c r="O4" s="35">
+        <v>13</v>
+      </c>
+      <c r="P4" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>15</v>
+      </c>
+      <c r="R4" s="33">
+        <v>16</v>
+      </c>
+      <c r="S4" s="33">
+        <v>17</v>
+      </c>
+      <c r="T4" s="33">
+        <v>18</v>
+      </c>
+      <c r="U4" s="33">
+        <v>19</v>
+      </c>
+      <c r="V4" s="35">
+        <v>20</v>
+      </c>
+      <c r="W4" s="35">
+        <v>21</v>
+      </c>
+      <c r="X4" s="33">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="35">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="33">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="33">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="34">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="33">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="35">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="35">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="33">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="33">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="33">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="33">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="33">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="35">
+        <v>11</v>
+      </c>
+      <c r="AS4" s="33">
+        <v>12</v>
+      </c>
+      <c r="AT4" s="33">
+        <v>13</v>
+      </c>
+      <c r="AU4" s="33">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="35">
+        <v>15</v>
+      </c>
+      <c r="AW4" s="35">
+        <v>16</v>
+      </c>
+      <c r="AX4" s="35">
+        <v>17</v>
+      </c>
+      <c r="AY4" s="35">
+        <v>18</v>
+      </c>
+      <c r="AZ4" s="33">
+        <v>19</v>
+      </c>
+      <c r="BA4" s="33">
+        <v>20</v>
+      </c>
+      <c r="BB4" s="33">
+        <v>21</v>
+      </c>
+      <c r="BC4" s="33">
+        <v>22</v>
+      </c>
+      <c r="BD4" s="33">
+        <v>23</v>
+      </c>
+      <c r="BE4" s="33">
+        <v>24</v>
+      </c>
+      <c r="BF4" s="33">
+        <v>25</v>
+      </c>
+      <c r="BG4" s="33">
+        <v>26</v>
+      </c>
+      <c r="BH4" s="33">
+        <v>27</v>
+      </c>
+      <c r="BI4" s="33">
+        <v>28</v>
+      </c>
+      <c r="BJ4" s="37">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="33">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="35">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="35">
+        <v>4</v>
+      </c>
+      <c r="BN4" s="33">
+        <v>5</v>
+      </c>
+      <c r="BO4" s="33">
+        <v>6</v>
+      </c>
+      <c r="BP4" s="33">
+        <v>7</v>
+      </c>
+      <c r="BQ4" s="33">
+        <v>8</v>
+      </c>
+      <c r="BR4" s="33">
+        <v>9</v>
+      </c>
+      <c r="BS4" s="35">
+        <v>10</v>
+      </c>
+      <c r="BT4" s="35">
+        <v>11</v>
+      </c>
+      <c r="BU4" s="33">
+        <v>12</v>
+      </c>
+      <c r="BV4" s="33">
+        <v>13</v>
+      </c>
+      <c r="BW4" s="33">
+        <v>14</v>
+      </c>
+      <c r="BX4" s="33">
+        <v>15</v>
+      </c>
+      <c r="BY4" s="33">
+        <v>16</v>
+      </c>
+      <c r="BZ4" s="35">
+        <v>17</v>
+      </c>
+      <c r="CA4" s="35">
+        <v>18</v>
+      </c>
+      <c r="CB4" s="33">
+        <v>19</v>
+      </c>
+      <c r="CC4" s="33">
+        <v>20</v>
+      </c>
+      <c r="CD4" s="33">
+        <v>21</v>
+      </c>
+      <c r="CE4" s="33">
+        <v>22</v>
+      </c>
+      <c r="CF4" s="33">
+        <v>23</v>
+      </c>
+      <c r="CG4" s="35">
+        <v>24</v>
+      </c>
+      <c r="CH4" s="35">
+        <v>25</v>
+      </c>
+      <c r="CI4" s="33">
+        <v>26</v>
+      </c>
+      <c r="CJ4" s="33">
+        <v>27</v>
+      </c>
+      <c r="CK4" s="33">
+        <v>28</v>
+      </c>
+      <c r="CL4" s="33">
+        <v>29</v>
+      </c>
+      <c r="CM4" s="33">
+        <v>30</v>
+      </c>
+      <c r="CN4" s="36">
+        <v>31</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="18">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="18">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="18">
+        <v>4</v>
+      </c>
+      <c r="CS4" s="18">
+        <v>5</v>
+      </c>
+      <c r="CT4" s="18">
+        <v>6</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>8</v>
+      </c>
+      <c r="CW4" s="18">
+        <v>9</v>
+      </c>
+      <c r="CX4" s="18">
+        <v>10</v>
+      </c>
+      <c r="CY4" s="18">
+        <v>11</v>
+      </c>
+      <c r="CZ4" s="18">
+        <v>12</v>
+      </c>
+      <c r="DA4" s="18">
+        <v>13</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>14</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>15</v>
+      </c>
+      <c r="DD4" s="18">
+        <v>16</v>
+      </c>
+      <c r="DE4" s="18">
+        <v>17</v>
+      </c>
+      <c r="DF4" s="18">
+        <v>18</v>
+      </c>
+      <c r="DG4" s="18">
+        <v>19</v>
+      </c>
+      <c r="DH4" s="18">
+        <v>20</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>21</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>22</v>
+      </c>
+      <c r="DK4" s="18">
+        <v>23</v>
+      </c>
+      <c r="DL4" s="18">
+        <v>24</v>
+      </c>
+      <c r="DM4" s="18">
+        <v>25</v>
+      </c>
+      <c r="DN4" s="18">
+        <v>26</v>
+      </c>
+      <c r="DO4" s="18">
+        <v>27</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>28</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>29</v>
+      </c>
+      <c r="DR4" s="28">
+        <v>30</v>
+      </c>
+      <c r="DS4" s="32">
+        <v>1</v>
+      </c>
+      <c r="DT4" s="33">
+        <v>2</v>
+      </c>
+      <c r="DU4" s="33">
+        <v>3</v>
+      </c>
+      <c r="DV4" s="33">
+        <v>4</v>
+      </c>
+      <c r="DW4" s="35">
+        <v>5</v>
+      </c>
+      <c r="DX4" s="35">
+        <v>6</v>
+      </c>
+      <c r="DY4" s="35">
+        <v>7</v>
+      </c>
+      <c r="DZ4" s="33">
+        <v>8</v>
+      </c>
+      <c r="EA4" s="33">
+        <v>9</v>
+      </c>
+      <c r="EB4" s="33">
+        <v>10</v>
+      </c>
+      <c r="EC4" s="33">
+        <v>11</v>
+      </c>
+      <c r="ED4" s="35">
+        <v>12</v>
+      </c>
+      <c r="EE4" s="35">
+        <v>13</v>
+      </c>
+      <c r="EF4" s="33">
+        <v>14</v>
+      </c>
+      <c r="EG4" s="33">
+        <v>15</v>
+      </c>
+      <c r="EH4" s="33">
+        <v>16</v>
+      </c>
+      <c r="EI4" s="33">
+        <v>17</v>
+      </c>
+      <c r="EJ4" s="33">
+        <v>18</v>
+      </c>
+      <c r="EK4" s="35">
+        <v>19</v>
+      </c>
+      <c r="EL4" s="35">
+        <v>20</v>
+      </c>
+      <c r="EM4" s="33">
+        <v>21</v>
+      </c>
+      <c r="EN4" s="35">
+        <v>22</v>
+      </c>
+      <c r="EO4" s="33">
+        <v>23</v>
+      </c>
+      <c r="EP4" s="33">
+        <v>24</v>
+      </c>
+      <c r="EQ4" s="33">
+        <v>25</v>
+      </c>
+      <c r="ER4" s="35">
+        <v>26</v>
+      </c>
+      <c r="ES4" s="35">
+        <v>27</v>
+      </c>
+      <c r="ET4" s="33">
+        <v>28</v>
+      </c>
+      <c r="EU4" s="33">
+        <v>29</v>
+      </c>
+      <c r="EV4" s="33">
+        <v>30</v>
+      </c>
+      <c r="EW4" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B5" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="31"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="19"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="19"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="9"/>
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="31"/>
+      <c r="CS5" s="19"/>
+      <c r="CT5" s="19"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="19"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="19"/>
+      <c r="DA5" s="19"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="19"/>
+      <c r="DF5" s="31"/>
+      <c r="DG5" s="19"/>
+      <c r="DH5" s="19"/>
+      <c r="DI5" s="10"/>
+      <c r="DJ5" s="10"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="19"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="19"/>
+      <c r="DO5" s="19"/>
+      <c r="DP5" s="10"/>
+      <c r="DQ5" s="10"/>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="19"/>
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="19"/>
+      <c r="DV5" s="19"/>
+      <c r="DW5" s="10"/>
+      <c r="DX5" s="10"/>
+      <c r="DY5" s="10"/>
+      <c r="DZ5" s="19"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="19"/>
+      <c r="EC5" s="19"/>
+      <c r="ED5" s="10"/>
+      <c r="EE5" s="10"/>
+      <c r="EF5" s="9"/>
+      <c r="EG5" s="19"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="19"/>
+      <c r="EJ5" s="19"/>
+      <c r="EK5" s="10"/>
+      <c r="EL5" s="10"/>
+      <c r="EM5" s="9"/>
+      <c r="EN5" s="10"/>
+      <c r="EO5" s="31"/>
+      <c r="EP5" s="19"/>
+      <c r="EQ5" s="19"/>
+      <c r="ER5" s="10"/>
+      <c r="ES5" s="10"/>
+      <c r="ET5" s="9"/>
+      <c r="EU5" s="9"/>
+      <c r="EV5" s="9"/>
+      <c r="EW5" s="11"/>
+    </row>
+    <row r="6" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B6" s="104"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="6"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="6"/>
+      <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
+      <c r="CZ6" s="20"/>
+      <c r="DA6" s="20"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="20"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="20"/>
+      <c r="DH6" s="20"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="6"/>
+      <c r="DL6" s="20"/>
+      <c r="DM6" s="20"/>
+      <c r="DN6" s="20"/>
+      <c r="DO6" s="20"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="6"/>
+      <c r="DS6" s="20"/>
+      <c r="DT6" s="20"/>
+      <c r="DU6" s="20"/>
+      <c r="DV6" s="20"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="20"/>
+      <c r="EA6" s="20"/>
+      <c r="EB6" s="20"/>
+      <c r="EC6" s="20"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="6"/>
+      <c r="EG6" s="20"/>
+      <c r="EH6" s="20"/>
+      <c r="EI6" s="20"/>
+      <c r="EJ6" s="20"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="13"/>
+      <c r="EM6" s="6"/>
+      <c r="EN6" s="13"/>
+      <c r="EO6" s="20"/>
+      <c r="EP6" s="20"/>
+      <c r="EQ6" s="20"/>
+      <c r="ER6" s="13"/>
+      <c r="ES6" s="13"/>
+      <c r="ET6" s="6"/>
+      <c r="EU6" s="6"/>
+      <c r="EV6" s="6"/>
+      <c r="EW6" s="24"/>
+    </row>
+    <row r="7" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B7" s="104"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="13"/>
+      <c r="BT7" s="13"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="13"/>
+      <c r="CA7" s="13"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="13"/>
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="6"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="20"/>
+      <c r="CS7" s="20"/>
+      <c r="CT7" s="20"/>
+      <c r="CU7" s="13"/>
+      <c r="CV7" s="13"/>
+      <c r="CW7" s="6"/>
+      <c r="CX7" s="20"/>
+      <c r="CY7" s="20"/>
+      <c r="CZ7" s="20"/>
+      <c r="DA7" s="20"/>
+      <c r="DB7" s="13"/>
+      <c r="DC7" s="13"/>
+      <c r="DD7" s="6"/>
+      <c r="DE7" s="20"/>
+      <c r="DF7" s="20"/>
+      <c r="DG7" s="20"/>
+      <c r="DH7" s="20"/>
+      <c r="DI7" s="13"/>
+      <c r="DJ7" s="13"/>
+      <c r="DK7" s="6"/>
+      <c r="DL7" s="20"/>
+      <c r="DM7" s="20"/>
+      <c r="DN7" s="20"/>
+      <c r="DO7" s="20"/>
+      <c r="DP7" s="13"/>
+      <c r="DQ7" s="13"/>
+      <c r="DR7" s="6"/>
+      <c r="DS7" s="20"/>
+      <c r="DT7" s="20"/>
+      <c r="DU7" s="20"/>
+      <c r="DV7" s="20"/>
+      <c r="DW7" s="13"/>
+      <c r="DX7" s="13"/>
+      <c r="DY7" s="13"/>
+      <c r="DZ7" s="20"/>
+      <c r="EA7" s="20"/>
+      <c r="EB7" s="20"/>
+      <c r="EC7" s="20"/>
+      <c r="ED7" s="13"/>
+      <c r="EE7" s="13"/>
+      <c r="EF7" s="6"/>
+      <c r="EG7" s="20"/>
+      <c r="EH7" s="20"/>
+      <c r="EI7" s="20"/>
+      <c r="EJ7" s="20"/>
+      <c r="EK7" s="13"/>
+      <c r="EL7" s="13"/>
+      <c r="EM7" s="6"/>
+      <c r="EN7" s="13"/>
+      <c r="EO7" s="20"/>
+      <c r="EP7" s="20"/>
+      <c r="EQ7" s="20"/>
+      <c r="ER7" s="13"/>
+      <c r="ES7" s="13"/>
+      <c r="ET7" s="6"/>
+      <c r="EU7" s="6"/>
+      <c r="EV7" s="6"/>
+      <c r="EW7" s="24"/>
+    </row>
+    <row r="8" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B8" s="104"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="20"/>
+      <c r="BR8" s="20"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="20"/>
+      <c r="BW8" s="20"/>
+      <c r="BX8" s="20"/>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="13"/>
+      <c r="CA8" s="13"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="20"/>
+      <c r="CD8" s="20"/>
+      <c r="CE8" s="20"/>
+      <c r="CF8" s="20"/>
+      <c r="CG8" s="13"/>
+      <c r="CH8" s="13"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="20"/>
+      <c r="CK8" s="20"/>
+      <c r="CL8" s="20"/>
+      <c r="CM8" s="20"/>
+      <c r="CN8" s="13"/>
+      <c r="CO8" s="13"/>
+      <c r="CP8" s="6"/>
+      <c r="CQ8" s="20"/>
+      <c r="CR8" s="20"/>
+      <c r="CS8" s="20"/>
+      <c r="CT8" s="20"/>
+      <c r="CU8" s="13"/>
+      <c r="CV8" s="13"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="20"/>
+      <c r="CY8" s="20"/>
+      <c r="CZ8" s="20"/>
+      <c r="DA8" s="20"/>
+      <c r="DB8" s="13"/>
+      <c r="DC8" s="13"/>
+      <c r="DD8" s="6"/>
+      <c r="DE8" s="20"/>
+      <c r="DF8" s="20"/>
+      <c r="DG8" s="20"/>
+      <c r="DH8" s="20"/>
+      <c r="DI8" s="13"/>
+      <c r="DJ8" s="13"/>
+      <c r="DK8" s="6"/>
+      <c r="DL8" s="20"/>
+      <c r="DM8" s="20"/>
+      <c r="DN8" s="20"/>
+      <c r="DO8" s="20"/>
+      <c r="DP8" s="13"/>
+      <c r="DQ8" s="13"/>
+      <c r="DR8" s="6"/>
+      <c r="DS8" s="20"/>
+      <c r="DT8" s="20"/>
+      <c r="DU8" s="20"/>
+      <c r="DV8" s="20"/>
+      <c r="DW8" s="13"/>
+      <c r="DX8" s="13"/>
+      <c r="DY8" s="13"/>
+      <c r="DZ8" s="20"/>
+      <c r="EA8" s="20"/>
+      <c r="EB8" s="20"/>
+      <c r="EC8" s="20"/>
+      <c r="ED8" s="13"/>
+      <c r="EE8" s="13"/>
+      <c r="EF8" s="6"/>
+      <c r="EG8" s="20"/>
+      <c r="EH8" s="20"/>
+      <c r="EI8" s="20"/>
+      <c r="EJ8" s="20"/>
+      <c r="EK8" s="13"/>
+      <c r="EL8" s="13"/>
+      <c r="EM8" s="6"/>
+      <c r="EN8" s="13"/>
+      <c r="EO8" s="20"/>
+      <c r="EP8" s="20"/>
+      <c r="EQ8" s="20"/>
+      <c r="ER8" s="13"/>
+      <c r="ES8" s="13"/>
+      <c r="ET8" s="6"/>
+      <c r="EU8" s="6"/>
+      <c r="EV8" s="6"/>
+      <c r="EW8" s="24"/>
+    </row>
+    <row r="9" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B9" s="104"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="20"/>
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="13"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20"/>
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="6"/>
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
+      <c r="CT9" s="20"/>
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="20"/>
+      <c r="CY9" s="20"/>
+      <c r="CZ9" s="20"/>
+      <c r="DA9" s="20"/>
+      <c r="DB9" s="13"/>
+      <c r="DC9" s="13"/>
+      <c r="DD9" s="6"/>
+      <c r="DE9" s="20"/>
+      <c r="DF9" s="20"/>
+      <c r="DG9" s="20"/>
+      <c r="DH9" s="20"/>
+      <c r="DI9" s="13"/>
+      <c r="DJ9" s="13"/>
+      <c r="DK9" s="6"/>
+      <c r="DL9" s="20"/>
+      <c r="DM9" s="20"/>
+      <c r="DN9" s="20"/>
+      <c r="DO9" s="20"/>
+      <c r="DP9" s="13"/>
+      <c r="DQ9" s="13"/>
+      <c r="DR9" s="6"/>
+      <c r="DS9" s="20"/>
+      <c r="DT9" s="20"/>
+      <c r="DU9" s="20"/>
+      <c r="DV9" s="20"/>
+      <c r="DW9" s="13"/>
+      <c r="DX9" s="13"/>
+      <c r="DY9" s="13"/>
+      <c r="DZ9" s="20"/>
+      <c r="EA9" s="20"/>
+      <c r="EB9" s="20"/>
+      <c r="EC9" s="20"/>
+      <c r="ED9" s="13"/>
+      <c r="EE9" s="13"/>
+      <c r="EF9" s="6"/>
+      <c r="EG9" s="20"/>
+      <c r="EH9" s="20"/>
+      <c r="EI9" s="20"/>
+      <c r="EJ9" s="20"/>
+      <c r="EK9" s="13"/>
+      <c r="EL9" s="13"/>
+      <c r="EM9" s="6"/>
+      <c r="EN9" s="13"/>
+      <c r="EO9" s="20"/>
+      <c r="EP9" s="20"/>
+      <c r="EQ9" s="20"/>
+      <c r="ER9" s="13"/>
+      <c r="ES9" s="13"/>
+      <c r="ET9" s="6"/>
+      <c r="EU9" s="6"/>
+      <c r="EV9" s="6"/>
+      <c r="EW9" s="24"/>
+    </row>
+    <row r="10" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B10" s="105"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="20"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="6"/>
+      <c r="CQ10" s="20"/>
+      <c r="CR10" s="20"/>
+      <c r="CS10" s="20"/>
+      <c r="CT10" s="20"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="6"/>
+      <c r="CX10" s="20"/>
+      <c r="CY10" s="20"/>
+      <c r="CZ10" s="20"/>
+      <c r="DA10" s="20"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="6"/>
+      <c r="DE10" s="20"/>
+      <c r="DF10" s="20"/>
+      <c r="DG10" s="20"/>
+      <c r="DH10" s="20"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="13"/>
+      <c r="DK10" s="6"/>
+      <c r="DL10" s="20"/>
+      <c r="DM10" s="20"/>
+      <c r="DN10" s="20"/>
+      <c r="DO10" s="20"/>
+      <c r="DP10" s="13"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="6"/>
+      <c r="DS10" s="20"/>
+      <c r="DT10" s="20"/>
+      <c r="DU10" s="20"/>
+      <c r="DV10" s="20"/>
+      <c r="DW10" s="13"/>
+      <c r="DX10" s="13"/>
+      <c r="DY10" s="13"/>
+      <c r="DZ10" s="20"/>
+      <c r="EA10" s="20"/>
+      <c r="EB10" s="20"/>
+      <c r="EC10" s="20"/>
+      <c r="ED10" s="13"/>
+      <c r="EE10" s="13"/>
+      <c r="EF10" s="6"/>
+      <c r="EG10" s="20"/>
+      <c r="EH10" s="20"/>
+      <c r="EI10" s="20"/>
+      <c r="EJ10" s="20"/>
+      <c r="EK10" s="13"/>
+      <c r="EL10" s="13"/>
+      <c r="EM10" s="6"/>
+      <c r="EN10" s="13"/>
+      <c r="EO10" s="20"/>
+      <c r="EP10" s="20"/>
+      <c r="EQ10" s="20"/>
+      <c r="ER10" s="13"/>
+      <c r="ES10" s="13"/>
+      <c r="ET10" s="6"/>
+      <c r="EU10" s="6"/>
+      <c r="EV10" s="6"/>
+      <c r="EW10" s="24"/>
+    </row>
+    <row r="11" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B11" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="43"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="43"/>
+      <c r="BL11" s="41"/>
+      <c r="BM11" s="41"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="43"/>
+      <c r="BP11" s="43"/>
+      <c r="BQ11" s="43"/>
+      <c r="BR11" s="43"/>
+      <c r="BS11" s="41"/>
+      <c r="BT11" s="41"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="43"/>
+      <c r="BW11" s="43"/>
+      <c r="BX11" s="43"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="41"/>
+      <c r="CA11" s="41"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="43"/>
+      <c r="CD11" s="43"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="41"/>
+      <c r="CH11" s="41"/>
+      <c r="CI11" s="39"/>
+      <c r="CJ11" s="43"/>
+      <c r="CK11" s="43"/>
+      <c r="CL11" s="43"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="41"/>
+      <c r="CO11" s="41"/>
+      <c r="CP11" s="39"/>
+      <c r="CQ11" s="43"/>
+      <c r="CR11" s="43"/>
+      <c r="CS11" s="43"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="41"/>
+      <c r="CV11" s="41"/>
+      <c r="CW11" s="39"/>
+      <c r="CX11" s="43"/>
+      <c r="CY11" s="43"/>
+      <c r="CZ11" s="43"/>
+      <c r="DA11" s="43"/>
+      <c r="DB11" s="41"/>
+      <c r="DC11" s="41"/>
+      <c r="DD11" s="39"/>
+      <c r="DE11" s="43"/>
+      <c r="DF11" s="43"/>
+      <c r="DG11" s="43"/>
+      <c r="DH11" s="43"/>
+      <c r="DI11" s="41"/>
+      <c r="DJ11" s="41"/>
+      <c r="DK11" s="39"/>
+      <c r="DL11" s="43"/>
+      <c r="DM11" s="43"/>
+      <c r="DN11" s="43"/>
+      <c r="DO11" s="43"/>
+      <c r="DP11" s="41"/>
+      <c r="DQ11" s="41"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="43"/>
+      <c r="DT11" s="43"/>
+      <c r="DU11" s="43"/>
+      <c r="DV11" s="43"/>
+      <c r="DW11" s="41"/>
+      <c r="DX11" s="41"/>
+      <c r="DY11" s="41"/>
+      <c r="DZ11" s="43"/>
+      <c r="EA11" s="43"/>
+      <c r="EB11" s="43"/>
+      <c r="EC11" s="43"/>
+      <c r="ED11" s="41"/>
+      <c r="EE11" s="41"/>
+      <c r="EF11" s="39"/>
+      <c r="EG11" s="43"/>
+      <c r="EH11" s="43"/>
+      <c r="EI11" s="43"/>
+      <c r="EJ11" s="43"/>
+      <c r="EK11" s="41"/>
+      <c r="EL11" s="41"/>
+      <c r="EM11" s="39"/>
+      <c r="EN11" s="41"/>
+      <c r="EO11" s="43"/>
+      <c r="EP11" s="43"/>
+      <c r="EQ11" s="43"/>
+      <c r="ER11" s="41"/>
+      <c r="ES11" s="41"/>
+      <c r="ET11" s="39"/>
+      <c r="EU11" s="39"/>
+      <c r="EV11" s="39"/>
+      <c r="EW11" s="44"/>
+    </row>
+    <row r="12" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B12" s="104"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="48"/>
+      <c r="BQ12" s="48"/>
+      <c r="BR12" s="48"/>
+      <c r="BS12" s="46"/>
+      <c r="BT12" s="46"/>
+      <c r="BU12" s="45"/>
+      <c r="BV12" s="48"/>
+      <c r="BW12" s="48"/>
+      <c r="BX12" s="48"/>
+      <c r="BY12" s="48"/>
+      <c r="BZ12" s="46"/>
+      <c r="CA12" s="46"/>
+      <c r="CB12" s="45"/>
+      <c r="CC12" s="48"/>
+      <c r="CD12" s="48"/>
+      <c r="CE12" s="48"/>
+      <c r="CF12" s="48"/>
+      <c r="CG12" s="46"/>
+      <c r="CH12" s="46"/>
+      <c r="CI12" s="45"/>
+      <c r="CJ12" s="48"/>
+      <c r="CK12" s="48"/>
+      <c r="CL12" s="48"/>
+      <c r="CM12" s="48"/>
+      <c r="CN12" s="46"/>
+      <c r="CO12" s="46"/>
+      <c r="CP12" s="45"/>
+      <c r="CQ12" s="48"/>
+      <c r="CR12" s="48"/>
+      <c r="CS12" s="48"/>
+      <c r="CT12" s="48"/>
+      <c r="CU12" s="46"/>
+      <c r="CV12" s="46"/>
+      <c r="CW12" s="45"/>
+      <c r="CX12" s="48"/>
+      <c r="CY12" s="48"/>
+      <c r="CZ12" s="48"/>
+      <c r="DA12" s="48"/>
+      <c r="DB12" s="46"/>
+      <c r="DC12" s="46"/>
+      <c r="DD12" s="45"/>
+      <c r="DE12" s="48"/>
+      <c r="DF12" s="48"/>
+      <c r="DG12" s="48"/>
+      <c r="DH12" s="48"/>
+      <c r="DI12" s="46"/>
+      <c r="DJ12" s="46"/>
+      <c r="DK12" s="45"/>
+      <c r="DL12" s="48"/>
+      <c r="DM12" s="48"/>
+      <c r="DN12" s="48"/>
+      <c r="DO12" s="48"/>
+      <c r="DP12" s="46"/>
+      <c r="DQ12" s="46"/>
+      <c r="DR12" s="45"/>
+      <c r="DS12" s="48"/>
+      <c r="DT12" s="48"/>
+      <c r="DU12" s="48"/>
+      <c r="DV12" s="48"/>
+      <c r="DW12" s="46"/>
+      <c r="DX12" s="46"/>
+      <c r="DY12" s="46"/>
+      <c r="DZ12" s="48"/>
+      <c r="EA12" s="48"/>
+      <c r="EB12" s="48"/>
+      <c r="EC12" s="48"/>
+      <c r="ED12" s="46"/>
+      <c r="EE12" s="46"/>
+      <c r="EF12" s="45"/>
+      <c r="EG12" s="48"/>
+      <c r="EH12" s="48"/>
+      <c r="EI12" s="48"/>
+      <c r="EJ12" s="48"/>
+      <c r="EK12" s="46"/>
+      <c r="EL12" s="46"/>
+      <c r="EM12" s="45"/>
+      <c r="EN12" s="46"/>
+      <c r="EO12" s="48"/>
+      <c r="EP12" s="48"/>
+      <c r="EQ12" s="48"/>
+      <c r="ER12" s="46"/>
+      <c r="ES12" s="46"/>
+      <c r="ET12" s="45"/>
+      <c r="EU12" s="45"/>
+      <c r="EV12" s="45"/>
+      <c r="EW12" s="49"/>
+    </row>
+    <row r="13" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B13" s="104"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="57"/>
+      <c r="BO13" s="59"/>
+      <c r="BP13" s="59"/>
+      <c r="BQ13" s="59"/>
+      <c r="BR13" s="59"/>
+      <c r="BS13" s="58"/>
+      <c r="BT13" s="58"/>
+      <c r="BU13" s="57"/>
+      <c r="BV13" s="59"/>
+      <c r="BW13" s="59"/>
+      <c r="BX13" s="59"/>
+      <c r="BY13" s="59"/>
+      <c r="BZ13" s="58"/>
+      <c r="CA13" s="58"/>
+      <c r="CB13" s="57"/>
+      <c r="CC13" s="59"/>
+      <c r="CD13" s="59"/>
+      <c r="CE13" s="59"/>
+      <c r="CF13" s="59"/>
+      <c r="CG13" s="58"/>
+      <c r="CH13" s="58"/>
+      <c r="CI13" s="57"/>
+      <c r="CJ13" s="59"/>
+      <c r="CK13" s="59"/>
+      <c r="CL13" s="59"/>
+      <c r="CM13" s="59"/>
+      <c r="CN13" s="58"/>
+      <c r="CO13" s="58"/>
+      <c r="CP13" s="57"/>
+      <c r="CQ13" s="59"/>
+      <c r="CR13" s="59"/>
+      <c r="CS13" s="59"/>
+      <c r="CT13" s="59"/>
+      <c r="CU13" s="58"/>
+      <c r="CV13" s="58"/>
+      <c r="CW13" s="57"/>
+      <c r="CX13" s="59"/>
+      <c r="CY13" s="59"/>
+      <c r="CZ13" s="59"/>
+      <c r="DA13" s="59"/>
+      <c r="DB13" s="58"/>
+      <c r="DC13" s="58"/>
+      <c r="DD13" s="57"/>
+      <c r="DE13" s="59"/>
+      <c r="DF13" s="59"/>
+      <c r="DG13" s="59"/>
+      <c r="DH13" s="59"/>
+      <c r="DI13" s="58"/>
+      <c r="DJ13" s="58"/>
+      <c r="DK13" s="57"/>
+      <c r="DL13" s="59"/>
+      <c r="DM13" s="59"/>
+      <c r="DN13" s="59"/>
+      <c r="DO13" s="59"/>
+      <c r="DP13" s="58"/>
+      <c r="DQ13" s="58"/>
+      <c r="DR13" s="57"/>
+      <c r="DS13" s="59"/>
+      <c r="DT13" s="59"/>
+      <c r="DU13" s="59"/>
+      <c r="DV13" s="59"/>
+      <c r="DW13" s="58"/>
+      <c r="DX13" s="58"/>
+      <c r="DY13" s="58"/>
+      <c r="DZ13" s="59"/>
+      <c r="EA13" s="59"/>
+      <c r="EB13" s="59"/>
+      <c r="EC13" s="59"/>
+      <c r="ED13" s="58"/>
+      <c r="EE13" s="58"/>
+      <c r="EF13" s="57"/>
+      <c r="EG13" s="59"/>
+      <c r="EH13" s="59"/>
+      <c r="EI13" s="59"/>
+      <c r="EJ13" s="59"/>
+      <c r="EK13" s="58"/>
+      <c r="EL13" s="58"/>
+      <c r="EM13" s="57"/>
+      <c r="EN13" s="58"/>
+      <c r="EO13" s="59"/>
+      <c r="EP13" s="59"/>
+      <c r="EQ13" s="59"/>
+      <c r="ER13" s="58"/>
+      <c r="ES13" s="58"/>
+      <c r="ET13" s="57"/>
+      <c r="EU13" s="57"/>
+      <c r="EV13" s="57"/>
+      <c r="EW13" s="60"/>
+    </row>
+    <row r="14" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B14" s="104"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="59"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="59"/>
+      <c r="BR14" s="59"/>
+      <c r="BS14" s="58"/>
+      <c r="BT14" s="58"/>
+      <c r="BU14" s="57"/>
+      <c r="BV14" s="59"/>
+      <c r="BW14" s="59"/>
+      <c r="BX14" s="59"/>
+      <c r="BY14" s="59"/>
+      <c r="BZ14" s="58"/>
+      <c r="CA14" s="58"/>
+      <c r="CB14" s="57"/>
+      <c r="CC14" s="59"/>
+      <c r="CD14" s="59"/>
+      <c r="CE14" s="59"/>
+      <c r="CF14" s="59"/>
+      <c r="CG14" s="58"/>
+      <c r="CH14" s="58"/>
+      <c r="CI14" s="57"/>
+      <c r="CJ14" s="59"/>
+      <c r="CK14" s="59"/>
+      <c r="CL14" s="59"/>
+      <c r="CM14" s="59"/>
+      <c r="CN14" s="58"/>
+      <c r="CO14" s="58"/>
+      <c r="CP14" s="57"/>
+      <c r="CQ14" s="59"/>
+      <c r="CR14" s="59"/>
+      <c r="CS14" s="59"/>
+      <c r="CT14" s="59"/>
+      <c r="CU14" s="58"/>
+      <c r="CV14" s="58"/>
+      <c r="CW14" s="57"/>
+      <c r="CX14" s="59"/>
+      <c r="CY14" s="59"/>
+      <c r="CZ14" s="59"/>
+      <c r="DA14" s="59"/>
+      <c r="DB14" s="58"/>
+      <c r="DC14" s="58"/>
+      <c r="DD14" s="57"/>
+      <c r="DE14" s="59"/>
+      <c r="DF14" s="59"/>
+      <c r="DG14" s="59"/>
+      <c r="DH14" s="59"/>
+      <c r="DI14" s="58"/>
+      <c r="DJ14" s="58"/>
+      <c r="DK14" s="57"/>
+      <c r="DL14" s="59"/>
+      <c r="DM14" s="59"/>
+      <c r="DN14" s="59"/>
+      <c r="DO14" s="59"/>
+      <c r="DP14" s="58"/>
+      <c r="DQ14" s="58"/>
+      <c r="DR14" s="57"/>
+      <c r="DS14" s="59"/>
+      <c r="DT14" s="59"/>
+      <c r="DU14" s="59"/>
+      <c r="DV14" s="59"/>
+      <c r="DW14" s="58"/>
+      <c r="DX14" s="58"/>
+      <c r="DY14" s="58"/>
+      <c r="DZ14" s="59"/>
+      <c r="EA14" s="59"/>
+      <c r="EB14" s="59"/>
+      <c r="EC14" s="59"/>
+      <c r="ED14" s="58"/>
+      <c r="EE14" s="58"/>
+      <c r="EF14" s="57"/>
+      <c r="EG14" s="59"/>
+      <c r="EH14" s="59"/>
+      <c r="EI14" s="59"/>
+      <c r="EJ14" s="59"/>
+      <c r="EK14" s="58"/>
+      <c r="EL14" s="58"/>
+      <c r="EM14" s="57"/>
+      <c r="EN14" s="58"/>
+      <c r="EO14" s="59"/>
+      <c r="EP14" s="59"/>
+      <c r="EQ14" s="59"/>
+      <c r="ER14" s="58"/>
+      <c r="ES14" s="58"/>
+      <c r="ET14" s="57"/>
+      <c r="EU14" s="57"/>
+      <c r="EV14" s="57"/>
+      <c r="EW14" s="60"/>
+    </row>
+    <row r="15" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B15" s="104"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="57"/>
+      <c r="BO15" s="59"/>
+      <c r="BP15" s="59"/>
+      <c r="BQ15" s="59"/>
+      <c r="BR15" s="59"/>
+      <c r="BS15" s="58"/>
+      <c r="BT15" s="58"/>
+      <c r="BU15" s="57"/>
+      <c r="BV15" s="59"/>
+      <c r="BW15" s="59"/>
+      <c r="BX15" s="59"/>
+      <c r="BY15" s="59"/>
+      <c r="BZ15" s="58"/>
+      <c r="CA15" s="58"/>
+      <c r="CB15" s="57"/>
+      <c r="CC15" s="59"/>
+      <c r="CD15" s="59"/>
+      <c r="CE15" s="59"/>
+      <c r="CF15" s="59"/>
+      <c r="CG15" s="58"/>
+      <c r="CH15" s="58"/>
+      <c r="CI15" s="57"/>
+      <c r="CJ15" s="59"/>
+      <c r="CK15" s="59"/>
+      <c r="CL15" s="59"/>
+      <c r="CM15" s="59"/>
+      <c r="CN15" s="58"/>
+      <c r="CO15" s="58"/>
+      <c r="CP15" s="57"/>
+      <c r="CQ15" s="59"/>
+      <c r="CR15" s="59"/>
+      <c r="CS15" s="59"/>
+      <c r="CT15" s="59"/>
+      <c r="CU15" s="58"/>
+      <c r="CV15" s="58"/>
+      <c r="CW15" s="57"/>
+      <c r="CX15" s="59"/>
+      <c r="CY15" s="59"/>
+      <c r="CZ15" s="59"/>
+      <c r="DA15" s="59"/>
+      <c r="DB15" s="58"/>
+      <c r="DC15" s="58"/>
+      <c r="DD15" s="57"/>
+      <c r="DE15" s="59"/>
+      <c r="DF15" s="59"/>
+      <c r="DG15" s="59"/>
+      <c r="DH15" s="59"/>
+      <c r="DI15" s="58"/>
+      <c r="DJ15" s="58"/>
+      <c r="DK15" s="57"/>
+      <c r="DL15" s="59"/>
+      <c r="DM15" s="59"/>
+      <c r="DN15" s="59"/>
+      <c r="DO15" s="59"/>
+      <c r="DP15" s="58"/>
+      <c r="DQ15" s="58"/>
+      <c r="DR15" s="57"/>
+      <c r="DS15" s="59"/>
+      <c r="DT15" s="59"/>
+      <c r="DU15" s="59"/>
+      <c r="DV15" s="59"/>
+      <c r="DW15" s="58"/>
+      <c r="DX15" s="58"/>
+      <c r="DY15" s="58"/>
+      <c r="DZ15" s="59"/>
+      <c r="EA15" s="59"/>
+      <c r="EB15" s="59"/>
+      <c r="EC15" s="59"/>
+      <c r="ED15" s="58"/>
+      <c r="EE15" s="58"/>
+      <c r="EF15" s="57"/>
+      <c r="EG15" s="59"/>
+      <c r="EH15" s="59"/>
+      <c r="EI15" s="59"/>
+      <c r="EJ15" s="59"/>
+      <c r="EK15" s="58"/>
+      <c r="EL15" s="58"/>
+      <c r="EM15" s="57"/>
+      <c r="EN15" s="58"/>
+      <c r="EO15" s="59"/>
+      <c r="EP15" s="59"/>
+      <c r="EQ15" s="59"/>
+      <c r="ER15" s="58"/>
+      <c r="ES15" s="58"/>
+      <c r="ET15" s="57"/>
+      <c r="EU15" s="57"/>
+      <c r="EV15" s="57"/>
+      <c r="EW15" s="60"/>
+    </row>
+    <row r="16" spans="2:153" x14ac:dyDescent="0.25">
+      <c r="B16" s="104"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="59"/>
+      <c r="BD16" s="59"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="59"/>
+      <c r="BI16" s="59"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="59"/>
+      <c r="BL16" s="58"/>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="57"/>
+      <c r="BO16" s="59"/>
+      <c r="BP16" s="59"/>
+      <c r="BQ16" s="59"/>
+      <c r="BR16" s="59"/>
+      <c r="BS16" s="58"/>
+      <c r="BT16" s="58"/>
+      <c r="BU16" s="57"/>
+      <c r="BV16" s="59"/>
+      <c r="BW16" s="59"/>
+      <c r="BX16" s="59"/>
+      <c r="BY16" s="59"/>
+      <c r="BZ16" s="58"/>
+      <c r="CA16" s="58"/>
+      <c r="CB16" s="57"/>
+      <c r="CC16" s="59"/>
+      <c r="CD16" s="59"/>
+      <c r="CE16" s="59"/>
+      <c r="CF16" s="59"/>
+      <c r="CG16" s="58"/>
+      <c r="CH16" s="58"/>
+      <c r="CI16" s="57"/>
+      <c r="CJ16" s="59"/>
+      <c r="CK16" s="59"/>
+      <c r="CL16" s="59"/>
+      <c r="CM16" s="59"/>
+      <c r="CN16" s="58"/>
+      <c r="CO16" s="58"/>
+      <c r="CP16" s="57"/>
+      <c r="CQ16" s="59"/>
+      <c r="CR16" s="59"/>
+      <c r="CS16" s="59"/>
+      <c r="CT16" s="59"/>
+      <c r="CU16" s="58"/>
+      <c r="CV16" s="58"/>
+      <c r="CW16" s="57"/>
+      <c r="CX16" s="59"/>
+      <c r="CY16" s="59"/>
+      <c r="CZ16" s="59"/>
+      <c r="DA16" s="59"/>
+      <c r="DB16" s="58"/>
+      <c r="DC16" s="58"/>
+      <c r="DD16" s="57"/>
+      <c r="DE16" s="59"/>
+      <c r="DF16" s="59"/>
+      <c r="DG16" s="59"/>
+      <c r="DH16" s="59"/>
+      <c r="DI16" s="58"/>
+      <c r="DJ16" s="58"/>
+      <c r="DK16" s="57"/>
+      <c r="DL16" s="59"/>
+      <c r="DM16" s="59"/>
+      <c r="DN16" s="59"/>
+      <c r="DO16" s="59"/>
+      <c r="DP16" s="58"/>
+      <c r="DQ16" s="58"/>
+      <c r="DR16" s="57"/>
+      <c r="DS16" s="59"/>
+      <c r="DT16" s="59"/>
+      <c r="DU16" s="59"/>
+      <c r="DV16" s="59"/>
+      <c r="DW16" s="58"/>
+      <c r="DX16" s="58"/>
+      <c r="DY16" s="58"/>
+      <c r="DZ16" s="59"/>
+      <c r="EA16" s="59"/>
+      <c r="EB16" s="59"/>
+      <c r="EC16" s="59"/>
+      <c r="ED16" s="58"/>
+      <c r="EE16" s="58"/>
+      <c r="EF16" s="57"/>
+      <c r="EG16" s="59"/>
+      <c r="EH16" s="59"/>
+      <c r="EI16" s="59"/>
+      <c r="EJ16" s="59"/>
+      <c r="EK16" s="58"/>
+      <c r="EL16" s="58"/>
+      <c r="EM16" s="57"/>
+      <c r="EN16" s="58"/>
+      <c r="EO16" s="59"/>
+      <c r="EP16" s="59"/>
+      <c r="EQ16" s="59"/>
+      <c r="ER16" s="58"/>
+      <c r="ES16" s="58"/>
+      <c r="ET16" s="57"/>
+      <c r="EU16" s="57"/>
+      <c r="EV16" s="57"/>
+      <c r="EW16" s="60"/>
+    </row>
+    <row r="17" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="104"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="57"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="57"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="57"/>
+      <c r="BO17" s="59"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="59"/>
+      <c r="BR17" s="59"/>
+      <c r="BS17" s="58"/>
+      <c r="BT17" s="58"/>
+      <c r="BU17" s="57"/>
+      <c r="BV17" s="59"/>
+      <c r="BW17" s="59"/>
+      <c r="BX17" s="59"/>
+      <c r="BY17" s="59"/>
+      <c r="BZ17" s="58"/>
+      <c r="CA17" s="58"/>
+      <c r="CB17" s="57"/>
+      <c r="CC17" s="59"/>
+      <c r="CD17" s="59"/>
+      <c r="CE17" s="59"/>
+      <c r="CF17" s="59"/>
+      <c r="CG17" s="58"/>
+      <c r="CH17" s="58"/>
+      <c r="CI17" s="57"/>
+      <c r="CJ17" s="59"/>
+      <c r="CK17" s="59"/>
+      <c r="CL17" s="59"/>
+      <c r="CM17" s="59"/>
+      <c r="CN17" s="58"/>
+      <c r="CO17" s="58"/>
+      <c r="CP17" s="57"/>
+      <c r="CQ17" s="59"/>
+      <c r="CR17" s="59"/>
+      <c r="CS17" s="59"/>
+      <c r="CT17" s="59"/>
+      <c r="CU17" s="58"/>
+      <c r="CV17" s="58"/>
+      <c r="CW17" s="57"/>
+      <c r="CX17" s="59"/>
+      <c r="CY17" s="59"/>
+      <c r="CZ17" s="59"/>
+      <c r="DA17" s="59"/>
+      <c r="DB17" s="58"/>
+      <c r="DC17" s="58"/>
+      <c r="DD17" s="57"/>
+      <c r="DE17" s="59"/>
+      <c r="DF17" s="59"/>
+      <c r="DG17" s="59"/>
+      <c r="DH17" s="59"/>
+      <c r="DI17" s="58"/>
+      <c r="DJ17" s="58"/>
+      <c r="DK17" s="57"/>
+      <c r="DL17" s="59"/>
+      <c r="DM17" s="59"/>
+      <c r="DN17" s="59"/>
+      <c r="DO17" s="59"/>
+      <c r="DP17" s="58"/>
+      <c r="DQ17" s="58"/>
+      <c r="DR17" s="57"/>
+      <c r="DS17" s="59"/>
+      <c r="DT17" s="59"/>
+      <c r="DU17" s="59"/>
+      <c r="DV17" s="59"/>
+      <c r="DW17" s="58"/>
+      <c r="DX17" s="58"/>
+      <c r="DY17" s="58"/>
+      <c r="DZ17" s="59"/>
+      <c r="EA17" s="59"/>
+      <c r="EB17" s="59"/>
+      <c r="EC17" s="59"/>
+      <c r="ED17" s="58"/>
+      <c r="EE17" s="58"/>
+      <c r="EF17" s="57"/>
+      <c r="EG17" s="59"/>
+      <c r="EH17" s="59"/>
+      <c r="EI17" s="59"/>
+      <c r="EJ17" s="59"/>
+      <c r="EK17" s="58"/>
+      <c r="EL17" s="58"/>
+      <c r="EM17" s="57"/>
+      <c r="EN17" s="58"/>
+      <c r="EO17" s="59"/>
+      <c r="EP17" s="59"/>
+      <c r="EQ17" s="59"/>
+      <c r="ER17" s="58"/>
+      <c r="ES17" s="58"/>
+      <c r="ET17" s="57"/>
+      <c r="EU17" s="57"/>
+      <c r="EV17" s="57"/>
+      <c r="EW17" s="60"/>
+    </row>
+    <row r="18" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="53"/>
+      <c r="BP18" s="53"/>
+      <c r="BQ18" s="53"/>
+      <c r="BR18" s="53"/>
+      <c r="BS18" s="51"/>
+      <c r="BT18" s="51"/>
+      <c r="BU18" s="50"/>
+      <c r="BV18" s="53"/>
+      <c r="BW18" s="53"/>
+      <c r="BX18" s="53"/>
+      <c r="BY18" s="53"/>
+      <c r="BZ18" s="51"/>
+      <c r="CA18" s="51"/>
+      <c r="CB18" s="50"/>
+      <c r="CC18" s="53"/>
+      <c r="CD18" s="53"/>
+      <c r="CE18" s="53"/>
+      <c r="CF18" s="53"/>
+      <c r="CG18" s="51"/>
+      <c r="CH18" s="51"/>
+      <c r="CI18" s="50"/>
+      <c r="CJ18" s="53"/>
+      <c r="CK18" s="53"/>
+      <c r="CL18" s="53"/>
+      <c r="CM18" s="53"/>
+      <c r="CN18" s="51"/>
+      <c r="CO18" s="51"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="53"/>
+      <c r="CR18" s="53"/>
+      <c r="CS18" s="53"/>
+      <c r="CT18" s="53"/>
+      <c r="CU18" s="51"/>
+      <c r="CV18" s="51"/>
+      <c r="CW18" s="50"/>
+      <c r="CX18" s="53"/>
+      <c r="CY18" s="53"/>
+      <c r="CZ18" s="53"/>
+      <c r="DA18" s="53"/>
+      <c r="DB18" s="51"/>
+      <c r="DC18" s="51"/>
+      <c r="DD18" s="50"/>
+      <c r="DE18" s="53"/>
+      <c r="DF18" s="53"/>
+      <c r="DG18" s="53"/>
+      <c r="DH18" s="53"/>
+      <c r="DI18" s="51"/>
+      <c r="DJ18" s="51"/>
+      <c r="DK18" s="50"/>
+      <c r="DL18" s="53"/>
+      <c r="DM18" s="53"/>
+      <c r="DN18" s="53"/>
+      <c r="DO18" s="53"/>
+      <c r="DP18" s="51"/>
+      <c r="DQ18" s="51"/>
+      <c r="DR18" s="50"/>
+      <c r="DS18" s="53"/>
+      <c r="DT18" s="53"/>
+      <c r="DU18" s="53"/>
+      <c r="DV18" s="53"/>
+      <c r="DW18" s="51"/>
+      <c r="DX18" s="51"/>
+      <c r="DY18" s="51"/>
+      <c r="DZ18" s="53"/>
+      <c r="EA18" s="53"/>
+      <c r="EB18" s="53"/>
+      <c r="EC18" s="53"/>
+      <c r="ED18" s="51"/>
+      <c r="EE18" s="51"/>
+      <c r="EF18" s="50"/>
+      <c r="EG18" s="53"/>
+      <c r="EH18" s="53"/>
+      <c r="EI18" s="53"/>
+      <c r="EJ18" s="53"/>
+      <c r="EK18" s="51"/>
+      <c r="EL18" s="51"/>
+      <c r="EM18" s="50"/>
+      <c r="EN18" s="51"/>
+      <c r="EO18" s="53"/>
+      <c r="EP18" s="53"/>
+      <c r="EQ18" s="53"/>
+      <c r="ER18" s="51"/>
+      <c r="ES18" s="51"/>
+      <c r="ET18" s="50"/>
+      <c r="EU18" s="50"/>
+      <c r="EV18" s="50"/>
+      <c r="EW18" s="54"/>
+    </row>
+    <row r="19" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="41"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="43"/>
+      <c r="BE19" s="41"/>
+      <c r="BF19" s="41"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="43"/>
+      <c r="BI19" s="43"/>
+      <c r="BJ19" s="41"/>
+      <c r="BK19" s="43"/>
+      <c r="BL19" s="41"/>
+      <c r="BM19" s="41"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="43"/>
+      <c r="BP19" s="43"/>
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="43"/>
+      <c r="BS19" s="41"/>
+      <c r="BT19" s="41"/>
+      <c r="BU19" s="39"/>
+      <c r="BV19" s="43"/>
+      <c r="BW19" s="43"/>
+      <c r="BX19" s="43"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="41"/>
+      <c r="CA19" s="41"/>
+      <c r="CB19" s="39"/>
+      <c r="CC19" s="43"/>
+      <c r="CD19" s="43"/>
+      <c r="CE19" s="43"/>
+      <c r="CF19" s="43"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="43"/>
+      <c r="CK19" s="43"/>
+      <c r="CL19" s="43"/>
+      <c r="CM19" s="43"/>
+      <c r="CN19" s="41"/>
+      <c r="CO19" s="41"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="43"/>
+      <c r="CS19" s="43"/>
+      <c r="CT19" s="43"/>
+      <c r="CU19" s="41"/>
+      <c r="CV19" s="41"/>
+      <c r="CW19" s="39"/>
+      <c r="CX19" s="43"/>
+      <c r="CY19" s="43"/>
+      <c r="CZ19" s="43"/>
+      <c r="DA19" s="43"/>
+      <c r="DB19" s="41"/>
+      <c r="DC19" s="41"/>
+      <c r="DD19" s="39"/>
+      <c r="DE19" s="43"/>
+      <c r="DF19" s="43"/>
+      <c r="DG19" s="43"/>
+      <c r="DH19" s="43"/>
+      <c r="DI19" s="41"/>
+      <c r="DJ19" s="41"/>
+      <c r="DK19" s="39"/>
+      <c r="DL19" s="43"/>
+      <c r="DM19" s="43"/>
+      <c r="DN19" s="43"/>
+      <c r="DO19" s="43"/>
+      <c r="DP19" s="41"/>
+      <c r="DQ19" s="41"/>
+      <c r="DR19" s="39"/>
+      <c r="DS19" s="43"/>
+      <c r="DT19" s="43"/>
+      <c r="DU19" s="43"/>
+      <c r="DV19" s="43"/>
+      <c r="DW19" s="41"/>
+      <c r="DX19" s="41"/>
+      <c r="DY19" s="41"/>
+      <c r="DZ19" s="43"/>
+      <c r="EA19" s="43"/>
+      <c r="EB19" s="43"/>
+      <c r="EC19" s="43"/>
+      <c r="ED19" s="41"/>
+      <c r="EE19" s="41"/>
+      <c r="EF19" s="39"/>
+      <c r="EG19" s="43"/>
+      <c r="EH19" s="43"/>
+      <c r="EI19" s="43"/>
+      <c r="EJ19" s="43"/>
+      <c r="EK19" s="41"/>
+      <c r="EL19" s="41"/>
+      <c r="EM19" s="39"/>
+      <c r="EN19" s="41"/>
+      <c r="EO19" s="43"/>
+      <c r="EP19" s="43"/>
+      <c r="EQ19" s="43"/>
+      <c r="ER19" s="41"/>
+      <c r="ES19" s="41"/>
+      <c r="ET19" s="39"/>
+      <c r="EU19" s="39"/>
+      <c r="EV19" s="39"/>
+      <c r="EW19" s="44"/>
+    </row>
+    <row r="20" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="104"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="45"/>
+      <c r="BO20" s="48"/>
+      <c r="BP20" s="48"/>
+      <c r="BQ20" s="48"/>
+      <c r="BR20" s="48"/>
+      <c r="BS20" s="46"/>
+      <c r="BT20" s="46"/>
+      <c r="BU20" s="45"/>
+      <c r="BV20" s="48"/>
+      <c r="BW20" s="48"/>
+      <c r="BX20" s="48"/>
+      <c r="BY20" s="48"/>
+      <c r="BZ20" s="46"/>
+      <c r="CA20" s="46"/>
+      <c r="CB20" s="45"/>
+      <c r="CC20" s="48"/>
+      <c r="CD20" s="48"/>
+      <c r="CE20" s="48"/>
+      <c r="CF20" s="48"/>
+      <c r="CG20" s="46"/>
+      <c r="CH20" s="46"/>
+      <c r="CI20" s="45"/>
+      <c r="CJ20" s="48"/>
+      <c r="CK20" s="48"/>
+      <c r="CL20" s="48"/>
+      <c r="CM20" s="48"/>
+      <c r="CN20" s="46"/>
+      <c r="CO20" s="46"/>
+      <c r="CP20" s="45"/>
+      <c r="CQ20" s="48"/>
+      <c r="CR20" s="48"/>
+      <c r="CS20" s="48"/>
+      <c r="CT20" s="48"/>
+      <c r="CU20" s="46"/>
+      <c r="CV20" s="46"/>
+      <c r="CW20" s="45"/>
+      <c r="CX20" s="48"/>
+      <c r="CY20" s="48"/>
+      <c r="CZ20" s="48"/>
+      <c r="DA20" s="48"/>
+      <c r="DB20" s="46"/>
+      <c r="DC20" s="46"/>
+      <c r="DD20" s="45"/>
+      <c r="DE20" s="48"/>
+      <c r="DF20" s="48"/>
+      <c r="DG20" s="48"/>
+      <c r="DH20" s="48"/>
+      <c r="DI20" s="46"/>
+      <c r="DJ20" s="46"/>
+      <c r="DK20" s="45"/>
+      <c r="DL20" s="48"/>
+      <c r="DM20" s="48"/>
+      <c r="DN20" s="48"/>
+      <c r="DO20" s="48"/>
+      <c r="DP20" s="46"/>
+      <c r="DQ20" s="46"/>
+      <c r="DR20" s="45"/>
+      <c r="DS20" s="48"/>
+      <c r="DT20" s="48"/>
+      <c r="DU20" s="48"/>
+      <c r="DV20" s="48"/>
+      <c r="DW20" s="46"/>
+      <c r="DX20" s="46"/>
+      <c r="DY20" s="46"/>
+      <c r="DZ20" s="48"/>
+      <c r="EA20" s="48"/>
+      <c r="EB20" s="48"/>
+      <c r="EC20" s="48"/>
+      <c r="ED20" s="46"/>
+      <c r="EE20" s="46"/>
+      <c r="EF20" s="45"/>
+      <c r="EG20" s="48"/>
+      <c r="EH20" s="48"/>
+      <c r="EI20" s="48"/>
+      <c r="EJ20" s="48"/>
+      <c r="EK20" s="46"/>
+      <c r="EL20" s="46"/>
+      <c r="EM20" s="45"/>
+      <c r="EN20" s="46"/>
+      <c r="EO20" s="48"/>
+      <c r="EP20" s="48"/>
+      <c r="EQ20" s="48"/>
+      <c r="ER20" s="46"/>
+      <c r="ES20" s="46"/>
+      <c r="ET20" s="45"/>
+      <c r="EU20" s="45"/>
+      <c r="EV20" s="45"/>
+      <c r="EW20" s="49"/>
+    </row>
+    <row r="21" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="104"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="45"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="48"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="45"/>
+      <c r="BO21" s="48"/>
+      <c r="BP21" s="48"/>
+      <c r="BQ21" s="48"/>
+      <c r="BR21" s="48"/>
+      <c r="BS21" s="46"/>
+      <c r="BT21" s="46"/>
+      <c r="BU21" s="45"/>
+      <c r="BV21" s="48"/>
+      <c r="BW21" s="48"/>
+      <c r="BX21" s="48"/>
+      <c r="BY21" s="48"/>
+      <c r="BZ21" s="46"/>
+      <c r="CA21" s="46"/>
+      <c r="CB21" s="45"/>
+      <c r="CC21" s="48"/>
+      <c r="CD21" s="48"/>
+      <c r="CE21" s="48"/>
+      <c r="CF21" s="48"/>
+      <c r="CG21" s="46"/>
+      <c r="CH21" s="46"/>
+      <c r="CI21" s="45"/>
+      <c r="CJ21" s="48"/>
+      <c r="CK21" s="48"/>
+      <c r="CL21" s="48"/>
+      <c r="CM21" s="48"/>
+      <c r="CN21" s="46"/>
+      <c r="CO21" s="46"/>
+      <c r="CP21" s="45"/>
+      <c r="CQ21" s="48"/>
+      <c r="CR21" s="48"/>
+      <c r="CS21" s="48"/>
+      <c r="CT21" s="48"/>
+      <c r="CU21" s="46"/>
+      <c r="CV21" s="46"/>
+      <c r="CW21" s="45"/>
+      <c r="CX21" s="48"/>
+      <c r="CY21" s="48"/>
+      <c r="CZ21" s="48"/>
+      <c r="DA21" s="48"/>
+      <c r="DB21" s="46"/>
+      <c r="DC21" s="46"/>
+      <c r="DD21" s="45"/>
+      <c r="DE21" s="48"/>
+      <c r="DF21" s="48"/>
+      <c r="DG21" s="48"/>
+      <c r="DH21" s="48"/>
+      <c r="DI21" s="46"/>
+      <c r="DJ21" s="46"/>
+      <c r="DK21" s="45"/>
+      <c r="DL21" s="48"/>
+      <c r="DM21" s="48"/>
+      <c r="DN21" s="48"/>
+      <c r="DO21" s="48"/>
+      <c r="DP21" s="46"/>
+      <c r="DQ21" s="46"/>
+      <c r="DR21" s="45"/>
+      <c r="DS21" s="48"/>
+      <c r="DT21" s="48"/>
+      <c r="DU21" s="48"/>
+      <c r="DV21" s="48"/>
+      <c r="DW21" s="46"/>
+      <c r="DX21" s="46"/>
+      <c r="DY21" s="46"/>
+      <c r="DZ21" s="48"/>
+      <c r="EA21" s="48"/>
+      <c r="EB21" s="48"/>
+      <c r="EC21" s="48"/>
+      <c r="ED21" s="46"/>
+      <c r="EE21" s="46"/>
+      <c r="EF21" s="45"/>
+      <c r="EG21" s="48"/>
+      <c r="EH21" s="48"/>
+      <c r="EI21" s="48"/>
+      <c r="EJ21" s="48"/>
+      <c r="EK21" s="46"/>
+      <c r="EL21" s="46"/>
+      <c r="EM21" s="45"/>
+      <c r="EN21" s="46"/>
+      <c r="EO21" s="48"/>
+      <c r="EP21" s="48"/>
+      <c r="EQ21" s="48"/>
+      <c r="ER21" s="46"/>
+      <c r="ES21" s="46"/>
+      <c r="ET21" s="45"/>
+      <c r="EU21" s="45"/>
+      <c r="EV21" s="45"/>
+      <c r="EW21" s="49"/>
+    </row>
+    <row r="22" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="104"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
+      <c r="BC22" s="48"/>
+      <c r="BD22" s="48"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="48"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="48"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="45"/>
+      <c r="BO22" s="48"/>
+      <c r="BP22" s="48"/>
+      <c r="BQ22" s="48"/>
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="48"/>
+      <c r="BW22" s="48"/>
+      <c r="BX22" s="48"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="45"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="46"/>
+      <c r="CH22" s="46"/>
+      <c r="CI22" s="45"/>
+      <c r="CJ22" s="48"/>
+      <c r="CK22" s="48"/>
+      <c r="CL22" s="48"/>
+      <c r="CM22" s="48"/>
+      <c r="CN22" s="46"/>
+      <c r="CO22" s="46"/>
+      <c r="CP22" s="45"/>
+      <c r="CQ22" s="48"/>
+      <c r="CR22" s="48"/>
+      <c r="CS22" s="48"/>
+      <c r="CT22" s="48"/>
+      <c r="CU22" s="46"/>
+      <c r="CV22" s="46"/>
+      <c r="CW22" s="45"/>
+      <c r="CX22" s="48"/>
+      <c r="CY22" s="48"/>
+      <c r="CZ22" s="48"/>
+      <c r="DA22" s="48"/>
+      <c r="DB22" s="46"/>
+      <c r="DC22" s="46"/>
+      <c r="DD22" s="45"/>
+      <c r="DE22" s="48"/>
+      <c r="DF22" s="48"/>
+      <c r="DG22" s="48"/>
+      <c r="DH22" s="48"/>
+      <c r="DI22" s="46"/>
+      <c r="DJ22" s="46"/>
+      <c r="DK22" s="45"/>
+      <c r="DL22" s="48"/>
+      <c r="DM22" s="48"/>
+      <c r="DN22" s="48"/>
+      <c r="DO22" s="48"/>
+      <c r="DP22" s="46"/>
+      <c r="DQ22" s="46"/>
+      <c r="DR22" s="45"/>
+      <c r="DS22" s="48"/>
+      <c r="DT22" s="48"/>
+      <c r="DU22" s="48"/>
+      <c r="DV22" s="48"/>
+      <c r="DW22" s="46"/>
+      <c r="DX22" s="46"/>
+      <c r="DY22" s="46"/>
+      <c r="DZ22" s="48"/>
+      <c r="EA22" s="48"/>
+      <c r="EB22" s="48"/>
+      <c r="EC22" s="48"/>
+      <c r="ED22" s="46"/>
+      <c r="EE22" s="46"/>
+      <c r="EF22" s="45"/>
+      <c r="EG22" s="48"/>
+      <c r="EH22" s="48"/>
+      <c r="EI22" s="48"/>
+      <c r="EJ22" s="48"/>
+      <c r="EK22" s="46"/>
+      <c r="EL22" s="46"/>
+      <c r="EM22" s="45"/>
+      <c r="EN22" s="46"/>
+      <c r="EO22" s="48"/>
+      <c r="EP22" s="48"/>
+      <c r="EQ22" s="48"/>
+      <c r="ER22" s="46"/>
+      <c r="ES22" s="46"/>
+      <c r="ET22" s="45"/>
+      <c r="EU22" s="45"/>
+      <c r="EV22" s="45"/>
+      <c r="EW22" s="49"/>
+    </row>
+    <row r="23" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="104"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="48"/>
+      <c r="BI23" s="48"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="48"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="46"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="48"/>
+      <c r="BP23" s="48"/>
+      <c r="BQ23" s="48"/>
+      <c r="BR23" s="48"/>
+      <c r="BS23" s="46"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="48"/>
+      <c r="BW23" s="48"/>
+      <c r="BX23" s="48"/>
+      <c r="BY23" s="48"/>
+      <c r="BZ23" s="46"/>
+      <c r="CA23" s="46"/>
+      <c r="CB23" s="45"/>
+      <c r="CC23" s="48"/>
+      <c r="CD23" s="48"/>
+      <c r="CE23" s="48"/>
+      <c r="CF23" s="48"/>
+      <c r="CG23" s="46"/>
+      <c r="CH23" s="46"/>
+      <c r="CI23" s="45"/>
+      <c r="CJ23" s="48"/>
+      <c r="CK23" s="48"/>
+      <c r="CL23" s="48"/>
+      <c r="CM23" s="48"/>
+      <c r="CN23" s="46"/>
+      <c r="CO23" s="46"/>
+      <c r="CP23" s="45"/>
+      <c r="CQ23" s="48"/>
+      <c r="CR23" s="48"/>
+      <c r="CS23" s="48"/>
+      <c r="CT23" s="48"/>
+      <c r="CU23" s="46"/>
+      <c r="CV23" s="46"/>
+      <c r="CW23" s="45"/>
+      <c r="CX23" s="48"/>
+      <c r="CY23" s="48"/>
+      <c r="CZ23" s="48"/>
+      <c r="DA23" s="48"/>
+      <c r="DB23" s="46"/>
+      <c r="DC23" s="46"/>
+      <c r="DD23" s="45"/>
+      <c r="DE23" s="48"/>
+      <c r="DF23" s="48"/>
+      <c r="DG23" s="48"/>
+      <c r="DH23" s="48"/>
+      <c r="DI23" s="46"/>
+      <c r="DJ23" s="46"/>
+      <c r="DK23" s="45"/>
+      <c r="DL23" s="48"/>
+      <c r="DM23" s="48"/>
+      <c r="DN23" s="48"/>
+      <c r="DO23" s="48"/>
+      <c r="DP23" s="46"/>
+      <c r="DQ23" s="46"/>
+      <c r="DR23" s="45"/>
+      <c r="DS23" s="48"/>
+      <c r="DT23" s="48"/>
+      <c r="DU23" s="48"/>
+      <c r="DV23" s="48"/>
+      <c r="DW23" s="46"/>
+      <c r="DX23" s="46"/>
+      <c r="DY23" s="46"/>
+      <c r="DZ23" s="48"/>
+      <c r="EA23" s="48"/>
+      <c r="EB23" s="48"/>
+      <c r="EC23" s="48"/>
+      <c r="ED23" s="46"/>
+      <c r="EE23" s="46"/>
+      <c r="EF23" s="45"/>
+      <c r="EG23" s="48"/>
+      <c r="EH23" s="48"/>
+      <c r="EI23" s="48"/>
+      <c r="EJ23" s="48"/>
+      <c r="EK23" s="46"/>
+      <c r="EL23" s="46"/>
+      <c r="EM23" s="45"/>
+      <c r="EN23" s="46"/>
+      <c r="EO23" s="48"/>
+      <c r="EP23" s="48"/>
+      <c r="EQ23" s="48"/>
+      <c r="ER23" s="46"/>
+      <c r="ES23" s="46"/>
+      <c r="ET23" s="45"/>
+      <c r="EU23" s="45"/>
+      <c r="EV23" s="45"/>
+      <c r="EW23" s="49"/>
+    </row>
+    <row r="24" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="104"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="48"/>
+      <c r="BB24" s="48"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="48"/>
+      <c r="BI24" s="48"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="48"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="48"/>
+      <c r="BP24" s="48"/>
+      <c r="BQ24" s="48"/>
+      <c r="BR24" s="48"/>
+      <c r="BS24" s="46"/>
+      <c r="BT24" s="46"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="48"/>
+      <c r="BW24" s="48"/>
+      <c r="BX24" s="48"/>
+      <c r="BY24" s="48"/>
+      <c r="BZ24" s="46"/>
+      <c r="CA24" s="46"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="48"/>
+      <c r="CD24" s="48"/>
+      <c r="CE24" s="48"/>
+      <c r="CF24" s="48"/>
+      <c r="CG24" s="46"/>
+      <c r="CH24" s="46"/>
+      <c r="CI24" s="45"/>
+      <c r="CJ24" s="48"/>
+      <c r="CK24" s="48"/>
+      <c r="CL24" s="48"/>
+      <c r="CM24" s="48"/>
+      <c r="CN24" s="46"/>
+      <c r="CO24" s="46"/>
+      <c r="CP24" s="45"/>
+      <c r="CQ24" s="48"/>
+      <c r="CR24" s="48"/>
+      <c r="CS24" s="48"/>
+      <c r="CT24" s="48"/>
+      <c r="CU24" s="46"/>
+      <c r="CV24" s="46"/>
+      <c r="CW24" s="45"/>
+      <c r="CX24" s="48"/>
+      <c r="CY24" s="48"/>
+      <c r="CZ24" s="48"/>
+      <c r="DA24" s="48"/>
+      <c r="DB24" s="46"/>
+      <c r="DC24" s="46"/>
+      <c r="DD24" s="45"/>
+      <c r="DE24" s="48"/>
+      <c r="DF24" s="48"/>
+      <c r="DG24" s="48"/>
+      <c r="DH24" s="48"/>
+      <c r="DI24" s="46"/>
+      <c r="DJ24" s="46"/>
+      <c r="DK24" s="45"/>
+      <c r="DL24" s="48"/>
+      <c r="DM24" s="48"/>
+      <c r="DN24" s="48"/>
+      <c r="DO24" s="48"/>
+      <c r="DP24" s="46"/>
+      <c r="DQ24" s="46"/>
+      <c r="DR24" s="45"/>
+      <c r="DS24" s="48"/>
+      <c r="DT24" s="48"/>
+      <c r="DU24" s="48"/>
+      <c r="DV24" s="48"/>
+      <c r="DW24" s="46"/>
+      <c r="DX24" s="46"/>
+      <c r="DY24" s="46"/>
+      <c r="DZ24" s="48"/>
+      <c r="EA24" s="48"/>
+      <c r="EB24" s="48"/>
+      <c r="EC24" s="48"/>
+      <c r="ED24" s="46"/>
+      <c r="EE24" s="46"/>
+      <c r="EF24" s="45"/>
+      <c r="EG24" s="48"/>
+      <c r="EH24" s="48"/>
+      <c r="EI24" s="48"/>
+      <c r="EJ24" s="48"/>
+      <c r="EK24" s="46"/>
+      <c r="EL24" s="46"/>
+      <c r="EM24" s="45"/>
+      <c r="EN24" s="46"/>
+      <c r="EO24" s="48"/>
+      <c r="EP24" s="48"/>
+      <c r="EQ24" s="48"/>
+      <c r="ER24" s="46"/>
+      <c r="ES24" s="46"/>
+      <c r="ET24" s="45"/>
+      <c r="EU24" s="45"/>
+      <c r="EV24" s="45"/>
+      <c r="EW24" s="49"/>
+    </row>
+    <row r="25" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="104"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="48"/>
+      <c r="BL25" s="46"/>
+      <c r="BM25" s="46"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="48"/>
+      <c r="BP25" s="48"/>
+      <c r="BQ25" s="48"/>
+      <c r="BR25" s="48"/>
+      <c r="BS25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="48"/>
+      <c r="BW25" s="48"/>
+      <c r="BX25" s="48"/>
+      <c r="BY25" s="48"/>
+      <c r="BZ25" s="46"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="48"/>
+      <c r="CD25" s="48"/>
+      <c r="CE25" s="48"/>
+      <c r="CF25" s="48"/>
+      <c r="CG25" s="46"/>
+      <c r="CH25" s="46"/>
+      <c r="CI25" s="45"/>
+      <c r="CJ25" s="48"/>
+      <c r="CK25" s="48"/>
+      <c r="CL25" s="48"/>
+      <c r="CM25" s="48"/>
+      <c r="CN25" s="46"/>
+      <c r="CO25" s="46"/>
+      <c r="CP25" s="45"/>
+      <c r="CQ25" s="48"/>
+      <c r="CR25" s="48"/>
+      <c r="CS25" s="48"/>
+      <c r="CT25" s="48"/>
+      <c r="CU25" s="46"/>
+      <c r="CV25" s="46"/>
+      <c r="CW25" s="45"/>
+      <c r="CX25" s="48"/>
+      <c r="CY25" s="48"/>
+      <c r="CZ25" s="48"/>
+      <c r="DA25" s="48"/>
+      <c r="DB25" s="46"/>
+      <c r="DC25" s="46"/>
+      <c r="DD25" s="45"/>
+      <c r="DE25" s="48"/>
+      <c r="DF25" s="48"/>
+      <c r="DG25" s="48"/>
+      <c r="DH25" s="48"/>
+      <c r="DI25" s="46"/>
+      <c r="DJ25" s="46"/>
+      <c r="DK25" s="45"/>
+      <c r="DL25" s="48"/>
+      <c r="DM25" s="48"/>
+      <c r="DN25" s="48"/>
+      <c r="DO25" s="48"/>
+      <c r="DP25" s="46"/>
+      <c r="DQ25" s="46"/>
+      <c r="DR25" s="45"/>
+      <c r="DS25" s="48"/>
+      <c r="DT25" s="48"/>
+      <c r="DU25" s="48"/>
+      <c r="DV25" s="48"/>
+      <c r="DW25" s="46"/>
+      <c r="DX25" s="46"/>
+      <c r="DY25" s="46"/>
+      <c r="DZ25" s="48"/>
+      <c r="EA25" s="48"/>
+      <c r="EB25" s="48"/>
+      <c r="EC25" s="48"/>
+      <c r="ED25" s="46"/>
+      <c r="EE25" s="46"/>
+      <c r="EF25" s="45"/>
+      <c r="EG25" s="48"/>
+      <c r="EH25" s="48"/>
+      <c r="EI25" s="48"/>
+      <c r="EJ25" s="48"/>
+      <c r="EK25" s="46"/>
+      <c r="EL25" s="46"/>
+      <c r="EM25" s="45"/>
+      <c r="EN25" s="46"/>
+      <c r="EO25" s="48"/>
+      <c r="EP25" s="48"/>
+      <c r="EQ25" s="48"/>
+      <c r="ER25" s="46"/>
+      <c r="ES25" s="46"/>
+      <c r="ET25" s="45"/>
+      <c r="EU25" s="45"/>
+      <c r="EV25" s="45"/>
+      <c r="EW25" s="49"/>
+    </row>
+    <row r="26" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="105"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="53"/>
+      <c r="BC26" s="53"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="50"/>
+      <c r="BH26" s="53"/>
+      <c r="BI26" s="53"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="53"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+      <c r="BN26" s="50"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="53"/>
+      <c r="BQ26" s="53"/>
+      <c r="BR26" s="53"/>
+      <c r="BS26" s="51"/>
+      <c r="BT26" s="51"/>
+      <c r="BU26" s="50"/>
+      <c r="BV26" s="53"/>
+      <c r="BW26" s="53"/>
+      <c r="BX26" s="53"/>
+      <c r="BY26" s="53"/>
+      <c r="BZ26" s="51"/>
+      <c r="CA26" s="51"/>
+      <c r="CB26" s="50"/>
+      <c r="CC26" s="53"/>
+      <c r="CD26" s="53"/>
+      <c r="CE26" s="53"/>
+      <c r="CF26" s="53"/>
+      <c r="CG26" s="51"/>
+      <c r="CH26" s="51"/>
+      <c r="CI26" s="50"/>
+      <c r="CJ26" s="53"/>
+      <c r="CK26" s="53"/>
+      <c r="CL26" s="53"/>
+      <c r="CM26" s="53"/>
+      <c r="CN26" s="51"/>
+      <c r="CO26" s="51"/>
+      <c r="CP26" s="50"/>
+      <c r="CQ26" s="53"/>
+      <c r="CR26" s="53"/>
+      <c r="CS26" s="53"/>
+      <c r="CT26" s="53"/>
+      <c r="CU26" s="51"/>
+      <c r="CV26" s="51"/>
+      <c r="CW26" s="50"/>
+      <c r="CX26" s="53"/>
+      <c r="CY26" s="53"/>
+      <c r="CZ26" s="53"/>
+      <c r="DA26" s="53"/>
+      <c r="DB26" s="51"/>
+      <c r="DC26" s="51"/>
+      <c r="DD26" s="50"/>
+      <c r="DE26" s="53"/>
+      <c r="DF26" s="53"/>
+      <c r="DG26" s="53"/>
+      <c r="DH26" s="53"/>
+      <c r="DI26" s="51"/>
+      <c r="DJ26" s="51"/>
+      <c r="DK26" s="50"/>
+      <c r="DL26" s="53"/>
+      <c r="DM26" s="53"/>
+      <c r="DN26" s="53"/>
+      <c r="DO26" s="53"/>
+      <c r="DP26" s="51"/>
+      <c r="DQ26" s="51"/>
+      <c r="DR26" s="50"/>
+      <c r="DS26" s="53"/>
+      <c r="DT26" s="53"/>
+      <c r="DU26" s="53"/>
+      <c r="DV26" s="53"/>
+      <c r="DW26" s="51"/>
+      <c r="DX26" s="51"/>
+      <c r="DY26" s="51"/>
+      <c r="DZ26" s="53"/>
+      <c r="EA26" s="53"/>
+      <c r="EB26" s="53"/>
+      <c r="EC26" s="53"/>
+      <c r="ED26" s="51"/>
+      <c r="EE26" s="51"/>
+      <c r="EF26" s="50"/>
+      <c r="EG26" s="53"/>
+      <c r="EH26" s="53"/>
+      <c r="EI26" s="53"/>
+      <c r="EJ26" s="53"/>
+      <c r="EK26" s="51"/>
+      <c r="EL26" s="51"/>
+      <c r="EM26" s="50"/>
+      <c r="EN26" s="51"/>
+      <c r="EO26" s="53"/>
+      <c r="EP26" s="53"/>
+      <c r="EQ26" s="53"/>
+      <c r="ER26" s="51"/>
+      <c r="ES26" s="51"/>
+      <c r="ET26" s="50"/>
+      <c r="EU26" s="50"/>
+      <c r="EV26" s="50"/>
+      <c r="EW26" s="54"/>
+    </row>
+    <row r="27" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="13"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="13"/>
+      <c r="BM27" s="13"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="13"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="4"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="13"/>
+      <c r="CA27" s="13"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="4"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="13"/>
+      <c r="CH27" s="13"/>
+      <c r="CI27" s="20"/>
+      <c r="CJ27" s="20"/>
+      <c r="CK27" s="4"/>
+      <c r="CL27" s="20"/>
+      <c r="CM27" s="20"/>
+      <c r="CN27" s="13"/>
+      <c r="CO27" s="13"/>
+      <c r="CP27" s="20"/>
+      <c r="CQ27" s="20"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="20"/>
+      <c r="CT27" s="20"/>
+      <c r="CU27" s="13"/>
+      <c r="CV27" s="13"/>
+      <c r="CW27" s="20"/>
+      <c r="CX27" s="20"/>
+      <c r="CY27" s="4"/>
+      <c r="CZ27" s="20"/>
+      <c r="DA27" s="20"/>
+      <c r="DB27" s="13"/>
+      <c r="DC27" s="13"/>
+      <c r="DD27" s="20"/>
+      <c r="DE27" s="20"/>
+      <c r="DF27" s="4"/>
+      <c r="DG27" s="20"/>
+      <c r="DH27" s="20"/>
+      <c r="DI27" s="13"/>
+      <c r="DJ27" s="13"/>
+      <c r="DK27" s="20"/>
+      <c r="DL27" s="20"/>
+      <c r="DM27" s="4"/>
+      <c r="DN27" s="20"/>
+      <c r="DO27" s="20"/>
+      <c r="DP27" s="13"/>
+      <c r="DQ27" s="13"/>
+      <c r="DR27" s="20"/>
+      <c r="DS27" s="20"/>
+      <c r="DT27" s="4"/>
+      <c r="DU27" s="20"/>
+      <c r="DV27" s="20"/>
+      <c r="DW27" s="13"/>
+      <c r="DX27" s="13"/>
+      <c r="DY27" s="13"/>
+      <c r="DZ27" s="20"/>
+      <c r="EA27" s="4"/>
+      <c r="EB27" s="20"/>
+      <c r="EC27" s="20"/>
+      <c r="ED27" s="13"/>
+      <c r="EE27" s="13"/>
+      <c r="EF27" s="20"/>
+      <c r="EG27" s="20"/>
+      <c r="EH27" s="4"/>
+      <c r="EI27" s="20"/>
+      <c r="EJ27" s="20"/>
+      <c r="EK27" s="13"/>
+      <c r="EL27" s="13"/>
+      <c r="EM27" s="20"/>
+      <c r="EN27" s="13"/>
+      <c r="EO27" s="4"/>
+      <c r="EP27" s="20"/>
+      <c r="EQ27" s="20"/>
+      <c r="ER27" s="13"/>
+      <c r="ES27" s="13"/>
+      <c r="ET27" s="6"/>
+      <c r="EU27" s="6"/>
+      <c r="EV27" s="6"/>
+      <c r="EW27" s="24"/>
+    </row>
+    <row r="28" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="13"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="13"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="13"/>
+      <c r="CA28" s="13"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="20"/>
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="13"/>
+      <c r="CH28" s="13"/>
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="13"/>
+      <c r="CO28" s="13"/>
+      <c r="CP28" s="20"/>
+      <c r="CQ28" s="20"/>
+      <c r="CR28" s="20"/>
+      <c r="CS28" s="20"/>
+      <c r="CT28" s="20"/>
+      <c r="CU28" s="13"/>
+      <c r="CV28" s="13"/>
+      <c r="CW28" s="20"/>
+      <c r="CX28" s="20"/>
+      <c r="CY28" s="20"/>
+      <c r="CZ28" s="20"/>
+      <c r="DA28" s="20"/>
+      <c r="DB28" s="13"/>
+      <c r="DC28" s="13"/>
+      <c r="DD28" s="20"/>
+      <c r="DE28" s="20"/>
+      <c r="DF28" s="20"/>
+      <c r="DG28" s="20"/>
+      <c r="DH28" s="20"/>
+      <c r="DI28" s="13"/>
+      <c r="DJ28" s="13"/>
+      <c r="DK28" s="20"/>
+      <c r="DL28" s="20"/>
+      <c r="DM28" s="20"/>
+      <c r="DN28" s="20"/>
+      <c r="DO28" s="20"/>
+      <c r="DP28" s="13"/>
+      <c r="DQ28" s="13"/>
+      <c r="DR28" s="20"/>
+      <c r="DS28" s="20"/>
+      <c r="DT28" s="20"/>
+      <c r="DU28" s="20"/>
+      <c r="DV28" s="20"/>
+      <c r="DW28" s="13"/>
+      <c r="DX28" s="13"/>
+      <c r="DY28" s="13"/>
+      <c r="DZ28" s="20"/>
+      <c r="EA28" s="20"/>
+      <c r="EB28" s="20"/>
+      <c r="EC28" s="20"/>
+      <c r="ED28" s="13"/>
+      <c r="EE28" s="13"/>
+      <c r="EF28" s="20"/>
+      <c r="EG28" s="20"/>
+      <c r="EH28" s="20"/>
+      <c r="EI28" s="20"/>
+      <c r="EJ28" s="20"/>
+      <c r="EK28" s="13"/>
+      <c r="EL28" s="13"/>
+      <c r="EM28" s="20"/>
+      <c r="EN28" s="13"/>
+      <c r="EO28" s="20"/>
+      <c r="EP28" s="20"/>
+      <c r="EQ28" s="20"/>
+      <c r="ER28" s="13"/>
+      <c r="ES28" s="13"/>
+      <c r="ET28" s="6"/>
+      <c r="EU28" s="6"/>
+      <c r="EV28" s="6"/>
+      <c r="EW28" s="24"/>
+    </row>
+    <row r="29" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="13"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="13"/>
+      <c r="BM29" s="13"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="20"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="13"/>
+      <c r="BU29" s="20"/>
+      <c r="BV29" s="20"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="13"/>
+      <c r="CA29" s="13"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20"/>
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="13"/>
+      <c r="CH29" s="13"/>
+      <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
+      <c r="CK29" s="20"/>
+      <c r="CL29" s="20"/>
+      <c r="CM29" s="20"/>
+      <c r="CN29" s="13"/>
+      <c r="CO29" s="13"/>
+      <c r="CP29" s="20"/>
+      <c r="CQ29" s="20"/>
+      <c r="CR29" s="20"/>
+      <c r="CS29" s="20"/>
+      <c r="CT29" s="20"/>
+      <c r="CU29" s="13"/>
+      <c r="CV29" s="13"/>
+      <c r="CW29" s="20"/>
+      <c r="CX29" s="20"/>
+      <c r="CY29" s="20"/>
+      <c r="CZ29" s="20"/>
+      <c r="DA29" s="20"/>
+      <c r="DB29" s="13"/>
+      <c r="DC29" s="13"/>
+      <c r="DD29" s="20"/>
+      <c r="DE29" s="20"/>
+      <c r="DF29" s="20"/>
+      <c r="DG29" s="20"/>
+      <c r="DH29" s="20"/>
+      <c r="DI29" s="13"/>
+      <c r="DJ29" s="13"/>
+      <c r="DK29" s="20"/>
+      <c r="DL29" s="20"/>
+      <c r="DM29" s="20"/>
+      <c r="DN29" s="20"/>
+      <c r="DO29" s="20"/>
+      <c r="DP29" s="13"/>
+      <c r="DQ29" s="13"/>
+      <c r="DR29" s="20"/>
+      <c r="DS29" s="20"/>
+      <c r="DT29" s="20"/>
+      <c r="DU29" s="20"/>
+      <c r="DV29" s="20"/>
+      <c r="DW29" s="13"/>
+      <c r="DX29" s="13"/>
+      <c r="DY29" s="13"/>
+      <c r="DZ29" s="20"/>
+      <c r="EA29" s="20"/>
+      <c r="EB29" s="20"/>
+      <c r="EC29" s="20"/>
+      <c r="ED29" s="13"/>
+      <c r="EE29" s="13"/>
+      <c r="EF29" s="20"/>
+      <c r="EG29" s="20"/>
+      <c r="EH29" s="20"/>
+      <c r="EI29" s="20"/>
+      <c r="EJ29" s="20"/>
+      <c r="EK29" s="13"/>
+      <c r="EL29" s="13"/>
+      <c r="EM29" s="20"/>
+      <c r="EN29" s="13"/>
+      <c r="EO29" s="20"/>
+      <c r="EP29" s="20"/>
+      <c r="EQ29" s="20"/>
+      <c r="ER29" s="13"/>
+      <c r="ES29" s="13"/>
+      <c r="ET29" s="6"/>
+      <c r="EU29" s="6"/>
+      <c r="EV29" s="6"/>
+      <c r="EW29" s="24"/>
+    </row>
+    <row r="30" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="6"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="6"/>
+      <c r="BL30" s="13"/>
+      <c r="BM30" s="13"/>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="6"/>
+      <c r="BP30" s="6"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BS30" s="13"/>
+      <c r="BT30" s="13"/>
+      <c r="BU30" s="6"/>
+      <c r="BV30" s="6"/>
+      <c r="BW30" s="6"/>
+      <c r="BX30" s="6"/>
+      <c r="BY30" s="6"/>
+      <c r="BZ30" s="13"/>
+      <c r="CA30" s="13"/>
+      <c r="CB30" s="6"/>
+      <c r="CC30" s="6"/>
+      <c r="CD30" s="6"/>
+      <c r="CE30" s="6"/>
+      <c r="CF30" s="6"/>
+      <c r="CG30" s="13"/>
+      <c r="CH30" s="13"/>
+      <c r="CI30" s="6"/>
+      <c r="CJ30" s="6"/>
+      <c r="CK30" s="6"/>
+      <c r="CL30" s="6"/>
+      <c r="CM30" s="6"/>
+      <c r="CN30" s="13"/>
+      <c r="CO30" s="13"/>
+      <c r="CP30" s="6"/>
+      <c r="CQ30" s="6"/>
+      <c r="CR30" s="6"/>
+      <c r="CS30" s="6"/>
+      <c r="CT30" s="6"/>
+      <c r="CU30" s="13"/>
+      <c r="CV30" s="13"/>
+      <c r="CW30" s="6"/>
+      <c r="CX30" s="6"/>
+      <c r="CY30" s="6"/>
+      <c r="CZ30" s="6"/>
+      <c r="DA30" s="6"/>
+      <c r="DB30" s="13"/>
+      <c r="DC30" s="13"/>
+      <c r="DD30" s="6"/>
+      <c r="DE30" s="6"/>
+      <c r="DF30" s="6"/>
+      <c r="DG30" s="6"/>
+      <c r="DH30" s="6"/>
+      <c r="DI30" s="13"/>
+      <c r="DJ30" s="13"/>
+      <c r="DK30" s="6"/>
+      <c r="DL30" s="6"/>
+      <c r="DM30" s="6"/>
+      <c r="DN30" s="6"/>
+      <c r="DO30" s="6"/>
+      <c r="DP30" s="13"/>
+      <c r="DQ30" s="13"/>
+      <c r="DR30" s="6"/>
+      <c r="DS30" s="6"/>
+      <c r="DT30" s="6"/>
+      <c r="DU30" s="6"/>
+      <c r="DV30" s="6"/>
+      <c r="DW30" s="13"/>
+      <c r="DX30" s="13"/>
+      <c r="DY30" s="13"/>
+      <c r="DZ30" s="6"/>
+      <c r="EA30" s="6"/>
+      <c r="EB30" s="6"/>
+      <c r="EC30" s="6"/>
+      <c r="ED30" s="13"/>
+      <c r="EE30" s="13"/>
+      <c r="EF30" s="6"/>
+      <c r="EG30" s="6"/>
+      <c r="EH30" s="6"/>
+      <c r="EI30" s="6"/>
+      <c r="EJ30" s="6"/>
+      <c r="EK30" s="13"/>
+      <c r="EL30" s="13"/>
+      <c r="EM30" s="6"/>
+      <c r="EN30" s="13"/>
+      <c r="EO30" s="6"/>
+      <c r="EP30" s="6"/>
+      <c r="EQ30" s="6"/>
+      <c r="ER30" s="13"/>
+      <c r="ES30" s="13"/>
+      <c r="ET30" s="6"/>
+      <c r="EU30" s="6"/>
+      <c r="EV30" s="6"/>
+      <c r="EW30" s="24"/>
+    </row>
+    <row r="31" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="13"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="13"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="13"/>
+      <c r="BM31" s="13"/>
+      <c r="BN31" s="6"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="13"/>
+      <c r="BT31" s="13"/>
+      <c r="BU31" s="6"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="6"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="6"/>
+      <c r="BZ31" s="13"/>
+      <c r="CA31" s="13"/>
+      <c r="CB31" s="6"/>
+      <c r="CC31" s="6"/>
+      <c r="CD31" s="6"/>
+      <c r="CE31" s="6"/>
+      <c r="CF31" s="6"/>
+      <c r="CG31" s="13"/>
+      <c r="CH31" s="13"/>
+      <c r="CI31" s="6"/>
+      <c r="CJ31" s="6"/>
+      <c r="CK31" s="6"/>
+      <c r="CL31" s="6"/>
+      <c r="CM31" s="6"/>
+      <c r="CN31" s="13"/>
+      <c r="CO31" s="13"/>
+      <c r="CP31" s="6"/>
+      <c r="CQ31" s="6"/>
+      <c r="CR31" s="6"/>
+      <c r="CS31" s="6"/>
+      <c r="CT31" s="6"/>
+      <c r="CU31" s="13"/>
+      <c r="CV31" s="13"/>
+      <c r="CW31" s="6"/>
+      <c r="CX31" s="6"/>
+      <c r="CY31" s="6"/>
+      <c r="CZ31" s="6"/>
+      <c r="DA31" s="6"/>
+      <c r="DB31" s="13"/>
+      <c r="DC31" s="13"/>
+      <c r="DD31" s="6"/>
+      <c r="DE31" s="6"/>
+      <c r="DF31" s="6"/>
+      <c r="DG31" s="6"/>
+      <c r="DH31" s="6"/>
+      <c r="DI31" s="13"/>
+      <c r="DJ31" s="13"/>
+      <c r="DK31" s="6"/>
+      <c r="DL31" s="6"/>
+      <c r="DM31" s="6"/>
+      <c r="DN31" s="6"/>
+      <c r="DO31" s="6"/>
+      <c r="DP31" s="13"/>
+      <c r="DQ31" s="13"/>
+      <c r="DR31" s="6"/>
+      <c r="DS31" s="6"/>
+      <c r="DT31" s="6"/>
+      <c r="DU31" s="6"/>
+      <c r="DV31" s="6"/>
+      <c r="DW31" s="13"/>
+      <c r="DX31" s="13"/>
+      <c r="DY31" s="13"/>
+      <c r="DZ31" s="6"/>
+      <c r="EA31" s="6"/>
+      <c r="EB31" s="6"/>
+      <c r="EC31" s="6"/>
+      <c r="ED31" s="13"/>
+      <c r="EE31" s="13"/>
+      <c r="EF31" s="6"/>
+      <c r="EG31" s="6"/>
+      <c r="EH31" s="6"/>
+      <c r="EI31" s="6"/>
+      <c r="EJ31" s="6"/>
+      <c r="EK31" s="13"/>
+      <c r="EL31" s="13"/>
+      <c r="EM31" s="6"/>
+      <c r="EN31" s="13"/>
+      <c r="EO31" s="6"/>
+      <c r="EP31" s="6"/>
+      <c r="EQ31" s="6"/>
+      <c r="ER31" s="13"/>
+      <c r="ES31" s="13"/>
+      <c r="ET31" s="6"/>
+      <c r="EU31" s="6"/>
+      <c r="EV31" s="6"/>
+      <c r="EW31" s="24"/>
+    </row>
+    <row r="32" spans="2:153" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="16"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="15"/>
+      <c r="CG32" s="16"/>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="15"/>
+      <c r="DE32" s="15"/>
+      <c r="DF32" s="15"/>
+      <c r="DG32" s="15"/>
+      <c r="DH32" s="15"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
+      <c r="DK32" s="15"/>
+      <c r="DL32" s="15"/>
+      <c r="DM32" s="15"/>
+      <c r="DN32" s="15"/>
+      <c r="DO32" s="15"/>
+      <c r="DP32" s="16"/>
+      <c r="DQ32" s="16"/>
+      <c r="DR32" s="15"/>
+      <c r="DS32" s="15"/>
+      <c r="DT32" s="15"/>
+      <c r="DU32" s="15"/>
+      <c r="DV32" s="15"/>
+      <c r="DW32" s="16"/>
+      <c r="DX32" s="16"/>
+      <c r="DY32" s="16"/>
+      <c r="DZ32" s="15"/>
+      <c r="EA32" s="15"/>
+      <c r="EB32" s="15"/>
+      <c r="EC32" s="15"/>
+      <c r="ED32" s="16"/>
+      <c r="EE32" s="16"/>
+      <c r="EF32" s="15"/>
+      <c r="EG32" s="15"/>
+      <c r="EH32" s="15"/>
+      <c r="EI32" s="15"/>
+      <c r="EJ32" s="15"/>
+      <c r="EK32" s="16"/>
+      <c r="EL32" s="16"/>
+      <c r="EM32" s="15"/>
+      <c r="EN32" s="16"/>
+      <c r="EO32" s="15"/>
+      <c r="EP32" s="15"/>
+      <c r="EQ32" s="15"/>
+      <c r="ER32" s="16"/>
+      <c r="ES32" s="16"/>
+      <c r="ET32" s="26"/>
+      <c r="EU32" s="26"/>
+      <c r="EV32" s="26"/>
+      <c r="EW32" s="27"/>
+    </row>
+    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="DS3:EW3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C3:AG3"/>
+    <mergeCell ref="AH3:BI3"/>
+    <mergeCell ref="BJ3:CN3"/>
+    <mergeCell ref="CO3:DR3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
+++ b/0_DOC/Plasma_Gen_Project schedule_20180104.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="14" r:id="rId1"/>
     <sheet name="V1.0_대외" sheetId="15" r:id="rId2"/>
-    <sheet name="1차 meeting" sheetId="16" r:id="rId3"/>
-    <sheet name="V2.0" sheetId="18" r:id="rId4"/>
+    <sheet name="V2.0" sheetId="18" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">V1.0!$A$1:$BT$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">V1.0_대외!$A$1:$BT$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">V2.0!$A$1:$BW$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">V2.0!$A$1:$BW$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>▶기능 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,57 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M/E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS-232 CON type 변경 여부
- - D-Sub 9-pin : PCB size가 커짐
- - USB Data line : RS-232 통신용 젠더 제작이 필요함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F/W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS-232 Control를 위한 Command list 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schematic V2.0으로 진행시 M/E part 반영 가능 여부
- - Volume / Power key / Plasma key / Reset key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M/E 구조에 따른 V2.0 수정 요청 사항 여부
- - PCB size 및 외곽 모양
- - 부품 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery 형상 및 CON type 협의
- - Battery size : L x W x H
- - Battery 용량 : size에 맞춰 결정해야 함
- - Battery current : 1A 이상
- - 사용품 사용시 사용품에 맞춰 CON 결정해야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>협의 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양산시 필요한 기능
- - H/W version 관리
- - D/L나 board test를 위한 Test Pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plasma V2.0 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,7 +251,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>◇회로설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇M/E data 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>◇PCB제작(3일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇부품발주(10일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,15 +359,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -923,10 +874,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -938,55 +887,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -997,63 +899,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,34 +1022,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,17 +1062,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2559,7 +2382,7 @@
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
@@ -2571,8 +2394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18596941" y="1924516"/>
-          <a:ext cx="328820" cy="0"/>
+          <a:off x="9328702" y="1924516"/>
+          <a:ext cx="1919081" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2604,16 +2427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>163167</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>5797</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>105656</xdr:rowOff>
+      <xdr:rowOff>89091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>105656</xdr:rowOff>
+      <xdr:rowOff>89091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2622,8 +2445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19304276" y="2110047"/>
-          <a:ext cx="1427094" cy="0"/>
+          <a:off x="10077449" y="2093482"/>
+          <a:ext cx="2354747" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2655,16 +2478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>197954</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>139976</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>99029</xdr:rowOff>
+      <xdr:rowOff>90746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>99029</xdr:rowOff>
+      <xdr:rowOff>90746</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2673,8 +2496,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17624563" y="1929486"/>
-          <a:ext cx="299002" cy="0"/>
+          <a:off x="12199454" y="1921203"/>
+          <a:ext cx="448090" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2811,13 +2634,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>85311</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>102342</xdr:rowOff>
+      <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>140805</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>102342</xdr:rowOff>
+      <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2826,7 +2649,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4193485" y="3324277"/>
+          <a:off x="4193485" y="3315994"/>
           <a:ext cx="1446972" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2959,6 +2782,159 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9707217" y="2267417"/>
+          <a:ext cx="4547153" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="직선 화살표 연결선 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194313" y="3678774"/>
+          <a:ext cx="8246165" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>146601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013384" y="3319307"/>
+          <a:ext cx="1393964" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3005,7 +2981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3040,7 +3016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3256,7 +3232,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH31" sqref="BH31"/>
+      <selection pane="topRight" activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3283,213 +3259,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="100">
+      <c r="C3" s="98">
         <v>11</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102">
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100">
         <v>12</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="102">
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="100">
         <v>1</v>
       </c>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="103">
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="101">
         <v>2</v>
       </c>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="103"/>
-      <c r="CN3" s="103"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="103"/>
-      <c r="CQ3" s="103"/>
-      <c r="CR3" s="103"/>
-      <c r="CS3" s="103"/>
-      <c r="CT3" s="103"/>
-      <c r="CU3" s="103"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="103"/>
-      <c r="CY3" s="103"/>
-      <c r="CZ3" s="102">
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="101"/>
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="100">
         <v>3</v>
       </c>
-      <c r="DA3" s="103"/>
-      <c r="DB3" s="103"/>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="103"/>
-      <c r="DE3" s="103"/>
-      <c r="DF3" s="103"/>
-      <c r="DG3" s="103"/>
-      <c r="DH3" s="103"/>
-      <c r="DI3" s="103"/>
-      <c r="DJ3" s="103"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="103"/>
-      <c r="DM3" s="103"/>
-      <c r="DN3" s="103"/>
-      <c r="DO3" s="103"/>
-      <c r="DP3" s="103"/>
-      <c r="DQ3" s="103"/>
-      <c r="DR3" s="103"/>
-      <c r="DS3" s="103"/>
-      <c r="DT3" s="103"/>
-      <c r="DU3" s="103"/>
-      <c r="DV3" s="103"/>
-      <c r="DW3" s="103"/>
-      <c r="DX3" s="103"/>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="103"/>
-      <c r="EA3" s="103"/>
-      <c r="EB3" s="103"/>
-      <c r="EC3" s="103"/>
-      <c r="ED3" s="107"/>
-      <c r="EE3" s="108">
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="101"/>
+      <c r="DI3" s="101"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="105"/>
+      <c r="EE3" s="106">
         <v>4</v>
       </c>
-      <c r="EF3" s="108"/>
-      <c r="EG3" s="108"/>
-      <c r="EH3" s="108"/>
-      <c r="EI3" s="108"/>
-      <c r="EJ3" s="108"/>
-      <c r="EK3" s="108"/>
-      <c r="EL3" s="108"/>
-      <c r="EM3" s="108"/>
-      <c r="EN3" s="108"/>
-      <c r="EO3" s="108"/>
-      <c r="EP3" s="108"/>
-      <c r="EQ3" s="108"/>
-      <c r="ER3" s="108"/>
-      <c r="ES3" s="108"/>
-      <c r="ET3" s="108"/>
-      <c r="EU3" s="108"/>
-      <c r="EV3" s="108"/>
-      <c r="EW3" s="108"/>
-      <c r="EX3" s="108"/>
-      <c r="EY3" s="108"/>
-      <c r="EZ3" s="108"/>
-      <c r="FA3" s="108"/>
-      <c r="FB3" s="108"/>
-      <c r="FC3" s="108"/>
-      <c r="FD3" s="108"/>
-      <c r="FE3" s="108"/>
-      <c r="FF3" s="108"/>
-      <c r="FG3" s="108"/>
-      <c r="FH3" s="109"/>
-      <c r="FI3" s="102">
+      <c r="EF3" s="106"/>
+      <c r="EG3" s="106"/>
+      <c r="EH3" s="106"/>
+      <c r="EI3" s="106"/>
+      <c r="EJ3" s="106"/>
+      <c r="EK3" s="106"/>
+      <c r="EL3" s="106"/>
+      <c r="EM3" s="106"/>
+      <c r="EN3" s="106"/>
+      <c r="EO3" s="106"/>
+      <c r="EP3" s="106"/>
+      <c r="EQ3" s="106"/>
+      <c r="ER3" s="106"/>
+      <c r="ES3" s="106"/>
+      <c r="ET3" s="106"/>
+      <c r="EU3" s="106"/>
+      <c r="EV3" s="106"/>
+      <c r="EW3" s="106"/>
+      <c r="EX3" s="106"/>
+      <c r="EY3" s="106"/>
+      <c r="EZ3" s="106"/>
+      <c r="FA3" s="106"/>
+      <c r="FB3" s="106"/>
+      <c r="FC3" s="106"/>
+      <c r="FD3" s="106"/>
+      <c r="FE3" s="106"/>
+      <c r="FF3" s="106"/>
+      <c r="FG3" s="106"/>
+      <c r="FH3" s="107"/>
+      <c r="FI3" s="100">
         <v>5</v>
       </c>
-      <c r="FJ3" s="103"/>
-      <c r="FK3" s="103"/>
-      <c r="FL3" s="103"/>
-      <c r="FM3" s="103"/>
-      <c r="FN3" s="103"/>
-      <c r="FO3" s="103"/>
-      <c r="FP3" s="103"/>
-      <c r="FQ3" s="103"/>
-      <c r="FR3" s="103"/>
-      <c r="FS3" s="103"/>
-      <c r="FT3" s="103"/>
-      <c r="FU3" s="103"/>
-      <c r="FV3" s="103"/>
-      <c r="FW3" s="103"/>
-      <c r="FX3" s="103"/>
-      <c r="FY3" s="103"/>
-      <c r="FZ3" s="103"/>
-      <c r="GA3" s="103"/>
-      <c r="GB3" s="103"/>
-      <c r="GC3" s="103"/>
-      <c r="GD3" s="103"/>
-      <c r="GE3" s="103"/>
-      <c r="GF3" s="103"/>
-      <c r="GG3" s="103"/>
-      <c r="GH3" s="103"/>
-      <c r="GI3" s="103"/>
-      <c r="GJ3" s="103"/>
-      <c r="GK3" s="103"/>
-      <c r="GL3" s="103"/>
-      <c r="GM3" s="107"/>
+      <c r="FJ3" s="101"/>
+      <c r="FK3" s="101"/>
+      <c r="FL3" s="101"/>
+      <c r="FM3" s="101"/>
+      <c r="FN3" s="101"/>
+      <c r="FO3" s="101"/>
+      <c r="FP3" s="101"/>
+      <c r="FQ3" s="101"/>
+      <c r="FR3" s="101"/>
+      <c r="FS3" s="101"/>
+      <c r="FT3" s="101"/>
+      <c r="FU3" s="101"/>
+      <c r="FV3" s="101"/>
+      <c r="FW3" s="101"/>
+      <c r="FX3" s="101"/>
+      <c r="FY3" s="101"/>
+      <c r="FZ3" s="101"/>
+      <c r="GA3" s="101"/>
+      <c r="GB3" s="101"/>
+      <c r="GC3" s="101"/>
+      <c r="GD3" s="101"/>
+      <c r="GE3" s="101"/>
+      <c r="GF3" s="101"/>
+      <c r="GG3" s="101"/>
+      <c r="GH3" s="101"/>
+      <c r="GI3" s="101"/>
+      <c r="GJ3" s="101"/>
+      <c r="GK3" s="101"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="105"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -4074,7 +4050,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="102" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -4276,7 +4252,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="104"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -4474,7 +4450,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -4672,7 +4648,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -4870,7 +4846,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -5068,7 +5044,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -5264,7 +5240,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="104" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -5474,7 +5450,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="104"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -5674,7 +5650,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -5874,7 +5850,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -6072,7 +6048,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -6270,7 +6246,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -6468,7 +6444,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -6666,7 +6642,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -9831,213 +9807,213 @@
     <row r="2" spans="2:195" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="100">
+      <c r="C3" s="98">
         <v>11</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102">
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100">
         <v>12</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="102">
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="100">
         <v>1</v>
       </c>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="103">
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="101">
         <v>2</v>
       </c>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="103"/>
-      <c r="CN3" s="103"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="103"/>
-      <c r="CQ3" s="103"/>
-      <c r="CR3" s="103"/>
-      <c r="CS3" s="103"/>
-      <c r="CT3" s="103"/>
-      <c r="CU3" s="103"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="103"/>
-      <c r="CY3" s="103"/>
-      <c r="CZ3" s="102">
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="101"/>
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="100">
         <v>3</v>
       </c>
-      <c r="DA3" s="103"/>
-      <c r="DB3" s="103"/>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="103"/>
-      <c r="DE3" s="103"/>
-      <c r="DF3" s="103"/>
-      <c r="DG3" s="103"/>
-      <c r="DH3" s="103"/>
-      <c r="DI3" s="103"/>
-      <c r="DJ3" s="103"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="103"/>
-      <c r="DM3" s="103"/>
-      <c r="DN3" s="103"/>
-      <c r="DO3" s="103"/>
-      <c r="DP3" s="103"/>
-      <c r="DQ3" s="103"/>
-      <c r="DR3" s="103"/>
-      <c r="DS3" s="103"/>
-      <c r="DT3" s="103"/>
-      <c r="DU3" s="103"/>
-      <c r="DV3" s="103"/>
-      <c r="DW3" s="103"/>
-      <c r="DX3" s="103"/>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="103"/>
-      <c r="EA3" s="103"/>
-      <c r="EB3" s="103"/>
-      <c r="EC3" s="103"/>
-      <c r="ED3" s="107"/>
-      <c r="EE3" s="108">
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="101"/>
+      <c r="DI3" s="101"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="105"/>
+      <c r="EE3" s="106">
         <v>4</v>
       </c>
-      <c r="EF3" s="108"/>
-      <c r="EG3" s="108"/>
-      <c r="EH3" s="108"/>
-      <c r="EI3" s="108"/>
-      <c r="EJ3" s="108"/>
-      <c r="EK3" s="108"/>
-      <c r="EL3" s="108"/>
-      <c r="EM3" s="108"/>
-      <c r="EN3" s="108"/>
-      <c r="EO3" s="108"/>
-      <c r="EP3" s="108"/>
-      <c r="EQ3" s="108"/>
-      <c r="ER3" s="108"/>
-      <c r="ES3" s="108"/>
-      <c r="ET3" s="108"/>
-      <c r="EU3" s="108"/>
-      <c r="EV3" s="108"/>
-      <c r="EW3" s="108"/>
-      <c r="EX3" s="108"/>
-      <c r="EY3" s="108"/>
-      <c r="EZ3" s="108"/>
-      <c r="FA3" s="108"/>
-      <c r="FB3" s="108"/>
-      <c r="FC3" s="108"/>
-      <c r="FD3" s="108"/>
-      <c r="FE3" s="108"/>
-      <c r="FF3" s="108"/>
-      <c r="FG3" s="108"/>
-      <c r="FH3" s="109"/>
-      <c r="FI3" s="102">
+      <c r="EF3" s="106"/>
+      <c r="EG3" s="106"/>
+      <c r="EH3" s="106"/>
+      <c r="EI3" s="106"/>
+      <c r="EJ3" s="106"/>
+      <c r="EK3" s="106"/>
+      <c r="EL3" s="106"/>
+      <c r="EM3" s="106"/>
+      <c r="EN3" s="106"/>
+      <c r="EO3" s="106"/>
+      <c r="EP3" s="106"/>
+      <c r="EQ3" s="106"/>
+      <c r="ER3" s="106"/>
+      <c r="ES3" s="106"/>
+      <c r="ET3" s="106"/>
+      <c r="EU3" s="106"/>
+      <c r="EV3" s="106"/>
+      <c r="EW3" s="106"/>
+      <c r="EX3" s="106"/>
+      <c r="EY3" s="106"/>
+      <c r="EZ3" s="106"/>
+      <c r="FA3" s="106"/>
+      <c r="FB3" s="106"/>
+      <c r="FC3" s="106"/>
+      <c r="FD3" s="106"/>
+      <c r="FE3" s="106"/>
+      <c r="FF3" s="106"/>
+      <c r="FG3" s="106"/>
+      <c r="FH3" s="107"/>
+      <c r="FI3" s="100">
         <v>5</v>
       </c>
-      <c r="FJ3" s="103"/>
-      <c r="FK3" s="103"/>
-      <c r="FL3" s="103"/>
-      <c r="FM3" s="103"/>
-      <c r="FN3" s="103"/>
-      <c r="FO3" s="103"/>
-      <c r="FP3" s="103"/>
-      <c r="FQ3" s="103"/>
-      <c r="FR3" s="103"/>
-      <c r="FS3" s="103"/>
-      <c r="FT3" s="103"/>
-      <c r="FU3" s="103"/>
-      <c r="FV3" s="103"/>
-      <c r="FW3" s="103"/>
-      <c r="FX3" s="103"/>
-      <c r="FY3" s="103"/>
-      <c r="FZ3" s="103"/>
-      <c r="GA3" s="103"/>
-      <c r="GB3" s="103"/>
-      <c r="GC3" s="103"/>
-      <c r="GD3" s="103"/>
-      <c r="GE3" s="103"/>
-      <c r="GF3" s="103"/>
-      <c r="GG3" s="103"/>
-      <c r="GH3" s="103"/>
-      <c r="GI3" s="103"/>
-      <c r="GJ3" s="103"/>
-      <c r="GK3" s="103"/>
-      <c r="GL3" s="103"/>
-      <c r="GM3" s="107"/>
+      <c r="FJ3" s="101"/>
+      <c r="FK3" s="101"/>
+      <c r="FL3" s="101"/>
+      <c r="FM3" s="101"/>
+      <c r="FN3" s="101"/>
+      <c r="FO3" s="101"/>
+      <c r="FP3" s="101"/>
+      <c r="FQ3" s="101"/>
+      <c r="FR3" s="101"/>
+      <c r="FS3" s="101"/>
+      <c r="FT3" s="101"/>
+      <c r="FU3" s="101"/>
+      <c r="FV3" s="101"/>
+      <c r="FW3" s="101"/>
+      <c r="FX3" s="101"/>
+      <c r="FY3" s="101"/>
+      <c r="FZ3" s="101"/>
+      <c r="GA3" s="101"/>
+      <c r="GB3" s="101"/>
+      <c r="GC3" s="101"/>
+      <c r="GD3" s="101"/>
+      <c r="GE3" s="101"/>
+      <c r="GF3" s="101"/>
+      <c r="GG3" s="101"/>
+      <c r="GH3" s="101"/>
+      <c r="GI3" s="101"/>
+      <c r="GJ3" s="101"/>
+      <c r="GK3" s="101"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="105"/>
     </row>
     <row r="4" spans="2:195" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -10622,7 +10598,7 @@
       </c>
     </row>
     <row r="5" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="102" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9"/>
@@ -10824,7 +10800,7 @@
       <c r="GM5" s="11"/>
     </row>
     <row r="6" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B6" s="104"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20"/>
@@ -11022,7 +10998,7 @@
       <c r="GM6" s="24"/>
     </row>
     <row r="7" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="20"/>
@@ -11220,7 +11196,7 @@
       <c r="GM7" s="24"/>
     </row>
     <row r="8" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="20"/>
@@ -11418,7 +11394,7 @@
       <c r="GM8" s="24"/>
     </row>
     <row r="9" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="20"/>
@@ -11616,7 +11592,7 @@
       <c r="GM9" s="24"/>
     </row>
     <row r="10" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="20"/>
@@ -11812,7 +11788,7 @@
       <c r="GM10" s="24"/>
     </row>
     <row r="11" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="104" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42"/>
@@ -12022,7 +11998,7 @@
       <c r="GM11" s="44"/>
     </row>
     <row r="12" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B12" s="104"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="47"/>
       <c r="D12" s="45"/>
       <c r="E12" s="48"/>
@@ -12222,7 +12198,7 @@
       <c r="GM12" s="49"/>
     </row>
     <row r="13" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="59"/>
@@ -12422,7 +12398,7 @@
       <c r="GM13" s="60"/>
     </row>
     <row r="14" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="59"/>
@@ -12620,7 +12596,7 @@
       <c r="GM14" s="60"/>
     </row>
     <row r="15" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="59"/>
@@ -12818,7 +12794,7 @@
       <c r="GM15" s="60"/>
     </row>
     <row r="16" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
       <c r="E16" s="59"/>
@@ -13016,7 +12992,7 @@
       <c r="GM16" s="60"/>
     </row>
     <row r="17" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
       <c r="E17" s="59"/>
@@ -13214,7 +13190,7 @@
       <c r="GM17" s="60"/>
     </row>
     <row r="18" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50"/>
       <c r="E18" s="53"/>
@@ -13410,7 +13386,7 @@
       <c r="GM18" s="54"/>
     </row>
     <row r="19" spans="2:195" x14ac:dyDescent="0.25">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="104" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="39"/>
@@ -13610,7 +13586,7 @@
       <c r="GM19" s="44"/>
     </row>
     <row r="20" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="48"/>
@@ -13811,7 +13787,7 @@
       <c r="GM20" s="49"/>
     </row>
     <row r="21" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="48"/>
@@ -14013,7 +13989,7 @@
       <c r="GM21" s="49"/>
     </row>
     <row r="22" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="48"/>
@@ -14211,7 +14187,7 @@
       <c r="GM22" s="49"/>
     </row>
     <row r="23" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="48"/>
@@ -14409,7 +14385,7 @@
       <c r="GM23" s="49"/>
     </row>
     <row r="24" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -14605,7 +14581,7 @@
       <c r="GM24" s="49"/>
     </row>
     <row r="25" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -14801,7 +14777,7 @@
       <c r="GM25" s="49"/>
     </row>
     <row r="26" spans="2:195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -16350,94 +16326,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="92"/>
-    </row>
-    <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="111"/>
-      <c r="C5" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="94"/>
-    </row>
-    <row r="6" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="111"/>
-      <c r="C6" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="94"/>
-    </row>
-    <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="94"/>
-    </row>
-    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="96"/>
-    </row>
-    <row r="9" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:EW49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
+      <selection activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -16449,173 +16344,173 @@
   <sheetData>
     <row r="1" spans="2:153" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B1" s="55" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:153" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:153" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="102">
+      <c r="C3" s="100">
         <v>1</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="103">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="101">
         <v>2</v>
       </c>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="102">
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="100">
         <v>3</v>
       </c>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="103"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="103"/>
-      <c r="CN3" s="107"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="105"/>
       <c r="CO3" s="108">
         <v>4</v>
       </c>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
-      <c r="CU3" s="108"/>
-      <c r="CV3" s="108"/>
-      <c r="CW3" s="108"/>
-      <c r="CX3" s="108"/>
-      <c r="CY3" s="108"/>
-      <c r="CZ3" s="108"/>
-      <c r="DA3" s="108"/>
-      <c r="DB3" s="108"/>
-      <c r="DC3" s="108"/>
-      <c r="DD3" s="108"/>
-      <c r="DE3" s="108"/>
-      <c r="DF3" s="108"/>
-      <c r="DG3" s="108"/>
-      <c r="DH3" s="108"/>
-      <c r="DI3" s="108"/>
-      <c r="DJ3" s="108"/>
-      <c r="DK3" s="108"/>
-      <c r="DL3" s="108"/>
-      <c r="DM3" s="108"/>
-      <c r="DN3" s="108"/>
-      <c r="DO3" s="108"/>
-      <c r="DP3" s="108"/>
-      <c r="DQ3" s="108"/>
-      <c r="DR3" s="109"/>
-      <c r="DS3" s="102">
+      <c r="CP3" s="106"/>
+      <c r="CQ3" s="106"/>
+      <c r="CR3" s="106"/>
+      <c r="CS3" s="106"/>
+      <c r="CT3" s="106"/>
+      <c r="CU3" s="106"/>
+      <c r="CV3" s="106"/>
+      <c r="CW3" s="106"/>
+      <c r="CX3" s="106"/>
+      <c r="CY3" s="106"/>
+      <c r="CZ3" s="106"/>
+      <c r="DA3" s="106"/>
+      <c r="DB3" s="106"/>
+      <c r="DC3" s="106"/>
+      <c r="DD3" s="106"/>
+      <c r="DE3" s="106"/>
+      <c r="DF3" s="106"/>
+      <c r="DG3" s="106"/>
+      <c r="DH3" s="106"/>
+      <c r="DI3" s="106"/>
+      <c r="DJ3" s="106"/>
+      <c r="DK3" s="106"/>
+      <c r="DL3" s="106"/>
+      <c r="DM3" s="106"/>
+      <c r="DN3" s="106"/>
+      <c r="DO3" s="106"/>
+      <c r="DP3" s="106"/>
+      <c r="DQ3" s="106"/>
+      <c r="DR3" s="107"/>
+      <c r="DS3" s="100">
         <v>5</v>
       </c>
-      <c r="DT3" s="103"/>
-      <c r="DU3" s="103"/>
-      <c r="DV3" s="103"/>
-      <c r="DW3" s="103"/>
-      <c r="DX3" s="103"/>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="103"/>
-      <c r="EA3" s="103"/>
-      <c r="EB3" s="103"/>
-      <c r="EC3" s="103"/>
-      <c r="ED3" s="103"/>
-      <c r="EE3" s="103"/>
-      <c r="EF3" s="103"/>
-      <c r="EG3" s="103"/>
-      <c r="EH3" s="103"/>
-      <c r="EI3" s="103"/>
-      <c r="EJ3" s="103"/>
-      <c r="EK3" s="103"/>
-      <c r="EL3" s="103"/>
-      <c r="EM3" s="103"/>
-      <c r="EN3" s="103"/>
-      <c r="EO3" s="103"/>
-      <c r="EP3" s="103"/>
-      <c r="EQ3" s="103"/>
-      <c r="ER3" s="103"/>
-      <c r="ES3" s="103"/>
-      <c r="ET3" s="103"/>
-      <c r="EU3" s="103"/>
-      <c r="EV3" s="103"/>
-      <c r="EW3" s="107"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="101"/>
+      <c r="EE3" s="101"/>
+      <c r="EF3" s="101"/>
+      <c r="EG3" s="101"/>
+      <c r="EH3" s="101"/>
+      <c r="EI3" s="101"/>
+      <c r="EJ3" s="101"/>
+      <c r="EK3" s="101"/>
+      <c r="EL3" s="101"/>
+      <c r="EM3" s="101"/>
+      <c r="EN3" s="101"/>
+      <c r="EO3" s="101"/>
+      <c r="EP3" s="101"/>
+      <c r="EQ3" s="101"/>
+      <c r="ER3" s="101"/>
+      <c r="ES3" s="101"/>
+      <c r="ET3" s="101"/>
+      <c r="EU3" s="101"/>
+      <c r="EV3" s="101"/>
+      <c r="EW3" s="105"/>
     </row>
     <row r="4" spans="2:153" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -16889,7 +16784,7 @@
       <c r="CN4" s="36">
         <v>31</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CO4" s="90">
         <v>1</v>
       </c>
       <c r="CP4" s="18">
@@ -17074,8 +16969,8 @@
       </c>
     </row>
     <row r="5" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
-        <v>58</v>
+      <c r="B5" s="102" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="19"/>
@@ -17089,7 +16984,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="19"/>
       <c r="N5" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -17138,7 +17033,7 @@
       <c r="BG5" s="9"/>
       <c r="BH5" s="19"/>
       <c r="BI5" s="31"/>
-      <c r="BJ5" s="10"/>
+      <c r="BJ5" s="71"/>
       <c r="BK5" s="19"/>
       <c r="BL5" s="10"/>
       <c r="BM5" s="10"/>
@@ -17168,7 +17063,7 @@
       <c r="CK5" s="31"/>
       <c r="CL5" s="19"/>
       <c r="CM5" s="19"/>
-      <c r="CN5" s="10"/>
+      <c r="CN5" s="91"/>
       <c r="CO5" s="10"/>
       <c r="CP5" s="9"/>
       <c r="CQ5" s="19"/>
@@ -17232,7 +17127,7 @@
       <c r="EW5" s="11"/>
     </row>
     <row r="6" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B6" s="104"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="73"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -17246,7 +17141,7 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="6"/>
@@ -17294,7 +17189,7 @@
       <c r="BG6" s="6"/>
       <c r="BH6" s="20"/>
       <c r="BI6" s="20"/>
-      <c r="BJ6" s="13"/>
+      <c r="BJ6" s="73"/>
       <c r="BK6" s="20"/>
       <c r="BL6" s="13"/>
       <c r="BM6" s="13"/>
@@ -17324,7 +17219,7 @@
       <c r="CK6" s="20"/>
       <c r="CL6" s="20"/>
       <c r="CM6" s="20"/>
-      <c r="CN6" s="13"/>
+      <c r="CN6" s="92"/>
       <c r="CO6" s="13"/>
       <c r="CP6" s="6"/>
       <c r="CQ6" s="20"/>
@@ -17388,7 +17283,7 @@
       <c r="EW6" s="24"/>
     </row>
     <row r="7" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="73"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -17402,7 +17297,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="6"/>
@@ -17450,7 +17345,7 @@
       <c r="BG7" s="6"/>
       <c r="BH7" s="20"/>
       <c r="BI7" s="20"/>
-      <c r="BJ7" s="13"/>
+      <c r="BJ7" s="73"/>
       <c r="BK7" s="20"/>
       <c r="BL7" s="13"/>
       <c r="BM7" s="13"/>
@@ -17480,7 +17375,7 @@
       <c r="CK7" s="20"/>
       <c r="CL7" s="20"/>
       <c r="CM7" s="20"/>
-      <c r="CN7" s="13"/>
+      <c r="CN7" s="92"/>
       <c r="CO7" s="13"/>
       <c r="CP7" s="6"/>
       <c r="CQ7" s="20"/>
@@ -17544,7 +17439,7 @@
       <c r="EW7" s="24"/>
     </row>
     <row r="8" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="73"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -17558,7 +17453,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="6"/>
@@ -17606,7 +17501,7 @@
       <c r="BG8" s="6"/>
       <c r="BH8" s="20"/>
       <c r="BI8" s="20"/>
-      <c r="BJ8" s="13"/>
+      <c r="BJ8" s="73"/>
       <c r="BK8" s="20"/>
       <c r="BL8" s="13"/>
       <c r="BM8" s="13"/>
@@ -17636,7 +17531,7 @@
       <c r="CK8" s="20"/>
       <c r="CL8" s="20"/>
       <c r="CM8" s="20"/>
-      <c r="CN8" s="13"/>
+      <c r="CN8" s="92"/>
       <c r="CO8" s="13"/>
       <c r="CP8" s="6"/>
       <c r="CQ8" s="20"/>
@@ -17700,7 +17595,7 @@
       <c r="EW8" s="24"/>
     </row>
     <row r="9" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="73"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -17714,7 +17609,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="6"/>
@@ -17762,7 +17657,7 @@
       <c r="BG9" s="6"/>
       <c r="BH9" s="20"/>
       <c r="BI9" s="20"/>
-      <c r="BJ9" s="13"/>
+      <c r="BJ9" s="73"/>
       <c r="BK9" s="20"/>
       <c r="BL9" s="13"/>
       <c r="BM9" s="13"/>
@@ -17792,7 +17687,7 @@
       <c r="CK9" s="20"/>
       <c r="CL9" s="20"/>
       <c r="CM9" s="20"/>
-      <c r="CN9" s="13"/>
+      <c r="CN9" s="92"/>
       <c r="CO9" s="13"/>
       <c r="CP9" s="6"/>
       <c r="CQ9" s="20"/>
@@ -17856,7 +17751,7 @@
       <c r="EW9" s="24"/>
     </row>
     <row r="10" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="73"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -17889,7 +17784,9 @@
       <c r="AF10" s="20"/>
       <c r="AG10" s="74"/>
       <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
+      <c r="AI10" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
       <c r="AL10" s="6"/>
@@ -17916,7 +17813,7 @@
       <c r="BG10" s="6"/>
       <c r="BH10" s="20"/>
       <c r="BI10" s="20"/>
-      <c r="BJ10" s="13"/>
+      <c r="BJ10" s="73"/>
       <c r="BK10" s="20"/>
       <c r="BL10" s="13"/>
       <c r="BM10" s="13"/>
@@ -17946,7 +17843,7 @@
       <c r="CK10" s="20"/>
       <c r="CL10" s="20"/>
       <c r="CM10" s="20"/>
-      <c r="CN10" s="13"/>
+      <c r="CN10" s="92"/>
       <c r="CO10" s="13"/>
       <c r="CP10" s="6"/>
       <c r="CQ10" s="20"/>
@@ -18010,8 +17907,8 @@
       <c r="EW10" s="24"/>
     </row>
     <row r="11" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
-        <v>59</v>
+      <c r="B11" s="104" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
@@ -18049,14 +17946,14 @@
       <c r="AJ11" s="41"/>
       <c r="AK11" s="41"/>
       <c r="AL11" s="40" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="AM11" s="43"/>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43"/>
       <c r="AP11" s="43"/>
       <c r="AQ11" s="41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AR11" s="41"/>
       <c r="AS11" s="40"/>
@@ -18066,22 +17963,22 @@
       <c r="AW11" s="41"/>
       <c r="AX11" s="41"/>
       <c r="AY11" s="41"/>
-      <c r="AZ11" s="40" t="s">
-        <v>61</v>
-      </c>
+      <c r="AZ11" s="40"/>
       <c r="BA11" s="43"/>
       <c r="BB11" s="40"/>
       <c r="BC11" s="48"/>
-      <c r="BD11" s="43"/>
-      <c r="BE11" s="41" t="s">
-        <v>66</v>
-      </c>
+      <c r="BD11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE11" s="41"/>
       <c r="BF11" s="41"/>
       <c r="BG11" s="40"/>
       <c r="BH11" s="43"/>
       <c r="BI11" s="43"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="43"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="43" t="s">
+        <v>59</v>
+      </c>
       <c r="BL11" s="41"/>
       <c r="BM11" s="41"/>
       <c r="BN11" s="39"/>
@@ -18110,7 +18007,7 @@
       <c r="CK11" s="43"/>
       <c r="CL11" s="43"/>
       <c r="CM11" s="43"/>
-      <c r="CN11" s="41"/>
+      <c r="CN11" s="93"/>
       <c r="CO11" s="41"/>
       <c r="CP11" s="39"/>
       <c r="CQ11" s="43"/>
@@ -18174,7 +18071,7 @@
       <c r="EW11" s="44"/>
     </row>
     <row r="12" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B12" s="104"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="77"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
@@ -18236,11 +18133,13 @@
       <c r="BG12" s="45"/>
       <c r="BH12" s="48"/>
       <c r="BI12" s="48"/>
-      <c r="BJ12" s="46"/>
+      <c r="BJ12" s="77"/>
       <c r="BK12" s="48"/>
       <c r="BL12" s="46"/>
       <c r="BM12" s="46"/>
-      <c r="BN12" s="45"/>
+      <c r="BN12" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="BO12" s="48"/>
       <c r="BP12" s="48"/>
       <c r="BQ12" s="48"/>
@@ -18266,7 +18165,7 @@
       <c r="CK12" s="48"/>
       <c r="CL12" s="48"/>
       <c r="CM12" s="48"/>
-      <c r="CN12" s="46"/>
+      <c r="CN12" s="94"/>
       <c r="CO12" s="46"/>
       <c r="CP12" s="45"/>
       <c r="CQ12" s="48"/>
@@ -18330,7 +18229,7 @@
       <c r="EW12" s="49"/>
     </row>
     <row r="13" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="79"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -18366,14 +18265,16 @@
       <c r="AI13" s="59"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
-      <c r="AL13" s="57"/>
+      <c r="AL13" s="48"/>
       <c r="AM13" s="59"/>
       <c r="AN13" s="59"/>
       <c r="AO13" s="59"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="58"/>
       <c r="AR13" s="58"/>
-      <c r="AS13" s="57"/>
+      <c r="AS13" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="AT13" s="59"/>
       <c r="AU13" s="59"/>
       <c r="AV13" s="58"/>
@@ -18390,7 +18291,7 @@
       <c r="BG13" s="57"/>
       <c r="BH13" s="59"/>
       <c r="BI13" s="59"/>
-      <c r="BJ13" s="58"/>
+      <c r="BJ13" s="79"/>
       <c r="BK13" s="59"/>
       <c r="BL13" s="58"/>
       <c r="BM13" s="58"/>
@@ -18420,7 +18321,7 @@
       <c r="CK13" s="59"/>
       <c r="CL13" s="59"/>
       <c r="CM13" s="59"/>
-      <c r="CN13" s="58"/>
+      <c r="CN13" s="95"/>
       <c r="CO13" s="58"/>
       <c r="CP13" s="57"/>
       <c r="CQ13" s="59"/>
@@ -18484,7 +18385,7 @@
       <c r="EW13" s="60"/>
     </row>
     <row r="14" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="79"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -18544,7 +18445,7 @@
       <c r="BG14" s="57"/>
       <c r="BH14" s="59"/>
       <c r="BI14" s="59"/>
-      <c r="BJ14" s="58"/>
+      <c r="BJ14" s="79"/>
       <c r="BK14" s="59"/>
       <c r="BL14" s="58"/>
       <c r="BM14" s="58"/>
@@ -18574,7 +18475,7 @@
       <c r="CK14" s="59"/>
       <c r="CL14" s="59"/>
       <c r="CM14" s="59"/>
-      <c r="CN14" s="58"/>
+      <c r="CN14" s="95"/>
       <c r="CO14" s="58"/>
       <c r="CP14" s="57"/>
       <c r="CQ14" s="59"/>
@@ -18638,7 +18539,7 @@
       <c r="EW14" s="60"/>
     </row>
     <row r="15" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="79"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
@@ -18698,7 +18599,7 @@
       <c r="BG15" s="57"/>
       <c r="BH15" s="59"/>
       <c r="BI15" s="59"/>
-      <c r="BJ15" s="58"/>
+      <c r="BJ15" s="79"/>
       <c r="BK15" s="59"/>
       <c r="BL15" s="58"/>
       <c r="BM15" s="58"/>
@@ -18728,7 +18629,7 @@
       <c r="CK15" s="59"/>
       <c r="CL15" s="59"/>
       <c r="CM15" s="59"/>
-      <c r="CN15" s="58"/>
+      <c r="CN15" s="95"/>
       <c r="CO15" s="58"/>
       <c r="CP15" s="57"/>
       <c r="CQ15" s="59"/>
@@ -18792,7 +18693,7 @@
       <c r="EW15" s="60"/>
     </row>
     <row r="16" spans="2:153" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="79"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -18852,7 +18753,7 @@
       <c r="BG16" s="57"/>
       <c r="BH16" s="59"/>
       <c r="BI16" s="59"/>
-      <c r="BJ16" s="58"/>
+      <c r="BJ16" s="79"/>
       <c r="BK16" s="59"/>
       <c r="BL16" s="58"/>
       <c r="BM16" s="58"/>
@@ -18882,7 +18783,7 @@
       <c r="CK16" s="59"/>
       <c r="CL16" s="59"/>
       <c r="CM16" s="59"/>
-      <c r="CN16" s="58"/>
+      <c r="CN16" s="95"/>
       <c r="CO16" s="58"/>
       <c r="CP16" s="57"/>
       <c r="CQ16" s="59"/>
@@ -18946,7 +18847,7 @@
       <c r="EW16" s="60"/>
     </row>
     <row r="17" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="79"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -19006,7 +18907,7 @@
       <c r="BG17" s="57"/>
       <c r="BH17" s="59"/>
       <c r="BI17" s="59"/>
-      <c r="BJ17" s="58"/>
+      <c r="BJ17" s="79"/>
       <c r="BK17" s="59"/>
       <c r="BL17" s="58"/>
       <c r="BM17" s="58"/>
@@ -19036,7 +18937,7 @@
       <c r="CK17" s="59"/>
       <c r="CL17" s="59"/>
       <c r="CM17" s="59"/>
-      <c r="CN17" s="58"/>
+      <c r="CN17" s="95"/>
       <c r="CO17" s="58"/>
       <c r="CP17" s="57"/>
       <c r="CQ17" s="59"/>
@@ -19100,7 +19001,7 @@
       <c r="EW17" s="60"/>
     </row>
     <row r="18" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="81"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -19160,7 +19061,7 @@
       <c r="BG18" s="50"/>
       <c r="BH18" s="53"/>
       <c r="BI18" s="53"/>
-      <c r="BJ18" s="51"/>
+      <c r="BJ18" s="81"/>
       <c r="BK18" s="53"/>
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
@@ -19190,7 +19091,7 @@
       <c r="CK18" s="53"/>
       <c r="CL18" s="53"/>
       <c r="CM18" s="53"/>
-      <c r="CN18" s="51"/>
+      <c r="CN18" s="96"/>
       <c r="CO18" s="51"/>
       <c r="CP18" s="50"/>
       <c r="CQ18" s="53"/>
@@ -19254,8 +19155,8 @@
       <c r="EW18" s="54"/>
     </row>
     <row r="19" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="106" t="s">
-        <v>62</v>
+      <c r="B19" s="104" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="43"/>
@@ -19272,7 +19173,7 @@
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
@@ -19285,7 +19186,7 @@
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC19" s="41"/>
       <c r="AD19" s="41"/>
@@ -19294,7 +19195,7 @@
       <c r="AG19" s="76"/>
       <c r="AH19" s="43"/>
       <c r="AI19" s="40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AJ19" s="41"/>
       <c r="AK19" s="41"/>
@@ -19303,13 +19204,15 @@
       <c r="AN19" s="43"/>
       <c r="AO19" s="43"/>
       <c r="AP19" s="40" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AQ19" s="41"/>
       <c r="AR19" s="41"/>
       <c r="AS19" s="39"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="43"/>
+      <c r="AU19" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="AV19" s="41"/>
       <c r="AW19" s="41"/>
       <c r="AX19" s="41"/>
@@ -19324,7 +19227,7 @@
       <c r="BG19" s="39"/>
       <c r="BH19" s="43"/>
       <c r="BI19" s="43"/>
-      <c r="BJ19" s="41"/>
+      <c r="BJ19" s="75"/>
       <c r="BK19" s="43"/>
       <c r="BL19" s="41"/>
       <c r="BM19" s="41"/>
@@ -19354,7 +19257,7 @@
       <c r="CK19" s="43"/>
       <c r="CL19" s="43"/>
       <c r="CM19" s="43"/>
-      <c r="CN19" s="41"/>
+      <c r="CN19" s="93"/>
       <c r="CO19" s="41"/>
       <c r="CP19" s="39"/>
       <c r="CQ19" s="43"/>
@@ -19418,7 +19321,7 @@
       <c r="EW19" s="44"/>
     </row>
     <row r="20" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="77"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -19438,7 +19341,7 @@
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V20" s="46"/>
       <c r="W20" s="46"/>
@@ -19479,7 +19382,7 @@
       <c r="BG20" s="48"/>
       <c r="BH20" s="48"/>
       <c r="BI20" s="48"/>
-      <c r="BJ20" s="46"/>
+      <c r="BJ20" s="77"/>
       <c r="BK20" s="48"/>
       <c r="BL20" s="46"/>
       <c r="BM20" s="46"/>
@@ -19509,7 +19412,7 @@
       <c r="CK20" s="48"/>
       <c r="CL20" s="48"/>
       <c r="CM20" s="48"/>
-      <c r="CN20" s="46"/>
+      <c r="CN20" s="94"/>
       <c r="CO20" s="46"/>
       <c r="CP20" s="45"/>
       <c r="CQ20" s="48"/>
@@ -19573,7 +19476,7 @@
       <c r="EW20" s="49"/>
     </row>
     <row r="21" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="77"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -19588,7 +19491,9 @@
       <c r="N21" s="48"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
-      <c r="Q21" s="45"/>
+      <c r="Q21" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
@@ -19633,7 +19538,7 @@
       <c r="BG21" s="45"/>
       <c r="BH21" s="48"/>
       <c r="BI21" s="48"/>
-      <c r="BJ21" s="46"/>
+      <c r="BJ21" s="77"/>
       <c r="BK21" s="48"/>
       <c r="BL21" s="46"/>
       <c r="BM21" s="46"/>
@@ -19663,7 +19568,7 @@
       <c r="CK21" s="48"/>
       <c r="CL21" s="48"/>
       <c r="CM21" s="48"/>
-      <c r="CN21" s="46"/>
+      <c r="CN21" s="94"/>
       <c r="CO21" s="46"/>
       <c r="CP21" s="45"/>
       <c r="CQ21" s="48"/>
@@ -19727,7 +19632,7 @@
       <c r="EW21" s="49"/>
     </row>
     <row r="22" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="77"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -19787,7 +19692,7 @@
       <c r="BG22" s="45"/>
       <c r="BH22" s="48"/>
       <c r="BI22" s="48"/>
-      <c r="BJ22" s="46"/>
+      <c r="BJ22" s="77"/>
       <c r="BK22" s="48"/>
       <c r="BL22" s="46"/>
       <c r="BM22" s="46"/>
@@ -19817,7 +19722,7 @@
       <c r="CK22" s="48"/>
       <c r="CL22" s="48"/>
       <c r="CM22" s="48"/>
-      <c r="CN22" s="46"/>
+      <c r="CN22" s="94"/>
       <c r="CO22" s="46"/>
       <c r="CP22" s="45"/>
       <c r="CQ22" s="48"/>
@@ -19881,7 +19786,7 @@
       <c r="EW22" s="49"/>
     </row>
     <row r="23" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="77"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
@@ -19941,7 +19846,7 @@
       <c r="BG23" s="45"/>
       <c r="BH23" s="48"/>
       <c r="BI23" s="48"/>
-      <c r="BJ23" s="46"/>
+      <c r="BJ23" s="77"/>
       <c r="BK23" s="48"/>
       <c r="BL23" s="46"/>
       <c r="BM23" s="46"/>
@@ -19971,7 +19876,7 @@
       <c r="CK23" s="48"/>
       <c r="CL23" s="48"/>
       <c r="CM23" s="48"/>
-      <c r="CN23" s="46"/>
+      <c r="CN23" s="94"/>
       <c r="CO23" s="46"/>
       <c r="CP23" s="45"/>
       <c r="CQ23" s="48"/>
@@ -20035,7 +19940,7 @@
       <c r="EW23" s="49"/>
     </row>
     <row r="24" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="77"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
@@ -20095,7 +20000,7 @@
       <c r="BG24" s="45"/>
       <c r="BH24" s="48"/>
       <c r="BI24" s="48"/>
-      <c r="BJ24" s="46"/>
+      <c r="BJ24" s="77"/>
       <c r="BK24" s="48"/>
       <c r="BL24" s="46"/>
       <c r="BM24" s="46"/>
@@ -20125,7 +20030,7 @@
       <c r="CK24" s="48"/>
       <c r="CL24" s="48"/>
       <c r="CM24" s="48"/>
-      <c r="CN24" s="46"/>
+      <c r="CN24" s="94"/>
       <c r="CO24" s="46"/>
       <c r="CP24" s="45"/>
       <c r="CQ24" s="48"/>
@@ -20189,7 +20094,7 @@
       <c r="EW24" s="49"/>
     </row>
     <row r="25" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="77"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
@@ -20249,7 +20154,7 @@
       <c r="BG25" s="45"/>
       <c r="BH25" s="48"/>
       <c r="BI25" s="48"/>
-      <c r="BJ25" s="46"/>
+      <c r="BJ25" s="77"/>
       <c r="BK25" s="48"/>
       <c r="BL25" s="46"/>
       <c r="BM25" s="46"/>
@@ -20279,7 +20184,7 @@
       <c r="CK25" s="48"/>
       <c r="CL25" s="48"/>
       <c r="CM25" s="48"/>
-      <c r="CN25" s="46"/>
+      <c r="CN25" s="94"/>
       <c r="CO25" s="46"/>
       <c r="CP25" s="45"/>
       <c r="CQ25" s="48"/>
@@ -20343,7 +20248,7 @@
       <c r="EW25" s="49"/>
     </row>
     <row r="26" spans="2:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="81"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -20403,7 +20308,7 @@
       <c r="BG26" s="50"/>
       <c r="BH26" s="53"/>
       <c r="BI26" s="53"/>
-      <c r="BJ26" s="51"/>
+      <c r="BJ26" s="81"/>
       <c r="BK26" s="53"/>
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
@@ -20433,7 +20338,7 @@
       <c r="CK26" s="53"/>
       <c r="CL26" s="53"/>
       <c r="CM26" s="53"/>
-      <c r="CN26" s="51"/>
+      <c r="CN26" s="96"/>
       <c r="CO26" s="51"/>
       <c r="CP26" s="50"/>
       <c r="CQ26" s="53"/>
@@ -20557,7 +20462,7 @@
       <c r="BG27" s="20"/>
       <c r="BH27" s="20"/>
       <c r="BI27" s="4"/>
-      <c r="BJ27" s="13"/>
+      <c r="BJ27" s="73"/>
       <c r="BK27" s="20"/>
       <c r="BL27" s="13"/>
       <c r="BM27" s="13"/>
@@ -20587,7 +20492,7 @@
       <c r="CK27" s="4"/>
       <c r="CL27" s="20"/>
       <c r="CM27" s="20"/>
-      <c r="CN27" s="13"/>
+      <c r="CN27" s="92"/>
       <c r="CO27" s="13"/>
       <c r="CP27" s="20"/>
       <c r="CQ27" s="20"/>
@@ -20711,7 +20616,7 @@
       <c r="BG28" s="20"/>
       <c r="BH28" s="20"/>
       <c r="BI28" s="20"/>
-      <c r="BJ28" s="13"/>
+      <c r="BJ28" s="73"/>
       <c r="BK28" s="20"/>
       <c r="BL28" s="13"/>
       <c r="BM28" s="13"/>
@@ -20741,7 +20646,7 @@
       <c r="CK28" s="20"/>
       <c r="CL28" s="20"/>
       <c r="CM28" s="20"/>
-      <c r="CN28" s="13"/>
+      <c r="CN28" s="92"/>
       <c r="CO28" s="13"/>
       <c r="CP28" s="20"/>
       <c r="CQ28" s="20"/>
@@ -20865,7 +20770,7 @@
       <c r="BG29" s="20"/>
       <c r="BH29" s="20"/>
       <c r="BI29" s="20"/>
-      <c r="BJ29" s="13"/>
+      <c r="BJ29" s="73"/>
       <c r="BK29" s="20"/>
       <c r="BL29" s="13"/>
       <c r="BM29" s="13"/>
@@ -20895,7 +20800,7 @@
       <c r="CK29" s="20"/>
       <c r="CL29" s="20"/>
       <c r="CM29" s="20"/>
-      <c r="CN29" s="13"/>
+      <c r="CN29" s="92"/>
       <c r="CO29" s="13"/>
       <c r="CP29" s="20"/>
       <c r="CQ29" s="20"/>
@@ -21019,7 +20924,7 @@
       <c r="BG30" s="6"/>
       <c r="BH30" s="6"/>
       <c r="BI30" s="6"/>
-      <c r="BJ30" s="13"/>
+      <c r="BJ30" s="73"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="13"/>
       <c r="BM30" s="13"/>
@@ -21049,7 +20954,7 @@
       <c r="CK30" s="6"/>
       <c r="CL30" s="6"/>
       <c r="CM30" s="6"/>
-      <c r="CN30" s="13"/>
+      <c r="CN30" s="92"/>
       <c r="CO30" s="13"/>
       <c r="CP30" s="6"/>
       <c r="CQ30" s="6"/>
@@ -21173,7 +21078,7 @@
       <c r="BG31" s="6"/>
       <c r="BH31" s="6"/>
       <c r="BI31" s="6"/>
-      <c r="BJ31" s="13"/>
+      <c r="BJ31" s="73"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="13"/>
       <c r="BM31" s="13"/>
@@ -21203,7 +21108,7 @@
       <c r="CK31" s="6"/>
       <c r="CL31" s="6"/>
       <c r="CM31" s="6"/>
-      <c r="CN31" s="13"/>
+      <c r="CN31" s="92"/>
       <c r="CO31" s="13"/>
       <c r="CP31" s="6"/>
       <c r="CQ31" s="6"/>
@@ -21327,7 +21232,7 @@
       <c r="BG32" s="15"/>
       <c r="BH32" s="15"/>
       <c r="BI32" s="15"/>
-      <c r="BJ32" s="16"/>
+      <c r="BJ32" s="85"/>
       <c r="BK32" s="15"/>
       <c r="BL32" s="16"/>
       <c r="BM32" s="16"/>
@@ -21357,7 +21262,7 @@
       <c r="CK32" s="15"/>
       <c r="CL32" s="15"/>
       <c r="CM32" s="15"/>
-      <c r="CN32" s="16"/>
+      <c r="CN32" s="97"/>
       <c r="CO32" s="16"/>
       <c r="CP32" s="15"/>
       <c r="CQ32" s="15"/>
